--- a/user-data/gdp-usd-current/gdp-usd-current.xlsx
+++ b/user-data/gdp-usd-current/gdp-usd-current.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="453">
   <si>
     <t>id</t>
   </si>
@@ -1354,9 +1354,6 @@
     <t>Source: World Bank World Development Indicators</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1739,32 +1736,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13">
@@ -1780,11 +1777,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>452</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/gdp-usd-current/gdp-usd-current.xlsx
+++ b/user-data/gdp-usd-current/gdp-usd-current.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1360,7 +1360,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/gdp-usd-current/gdp-usd-current.xlsx
+++ b/user-data/gdp-usd-current/gdp-usd-current.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
   <si>
     <t>id</t>
   </si>
@@ -1366,7 +1366,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1779,6 +1782,11 @@
         <v>452</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>453</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/gdp-usd-current/gdp-usd-current.xlsx
+++ b/user-data/gdp-usd-current/gdp-usd-current.xlsx
@@ -298,7 +298,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>784000000</t>
@@ -1357,7 +1357,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>5554000000</t>
@@ -1828,10 +1828,805 @@
     <t>5132000000</t>
   </si>
   <si>
+    <t>KH</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>3667000000</t>
+  </si>
+  <si>
+    <t>3992000000</t>
+  </si>
+  <si>
+    <t>4289000000</t>
+  </si>
+  <si>
+    <t>4665000000</t>
+  </si>
+  <si>
+    <t>5334000000</t>
+  </si>
+  <si>
+    <t>6287000000</t>
+  </si>
+  <si>
+    <t>7268000000</t>
+  </si>
+  <si>
+    <t>8630000000</t>
+  </si>
+  <si>
+    <t>10342000000</t>
+  </si>
+  <si>
+    <t>10391000000</t>
+  </si>
+  <si>
+    <t>11232000000</t>
+  </si>
+  <si>
+    <t>12818000000</t>
+  </si>
+  <si>
+    <t>14057000000</t>
+  </si>
+  <si>
+    <t>15362000000</t>
+  </si>
+  <si>
+    <t>16551000000</t>
+  </si>
+  <si>
+    <t>17814000000</t>
+  </si>
+  <si>
+    <t>19392000000</t>
+  </si>
+  <si>
+    <t>21088000000</t>
+  </si>
+  <si>
+    <t>23031000000</t>
+  </si>
+  <si>
+    <t>25126000000</t>
+  </si>
+  <si>
+    <t>27417000000</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>9272000000</t>
+  </si>
+  <si>
+    <t>9638000000</t>
+  </si>
+  <si>
+    <t>10888000000</t>
+  </si>
+  <si>
+    <t>13630000000</t>
+  </si>
+  <si>
+    <t>15784000000</t>
+  </si>
+  <si>
+    <t>16617000000</t>
+  </si>
+  <si>
+    <t>17970000000</t>
+  </si>
+  <si>
+    <t>20461000000</t>
+  </si>
+  <si>
+    <t>23432000000</t>
+  </si>
+  <si>
+    <t>23442000000</t>
+  </si>
+  <si>
+    <t>23667000000</t>
+  </si>
+  <si>
+    <t>26612000000</t>
+  </si>
+  <si>
+    <t>26487000000</t>
+  </si>
+  <si>
+    <t>29576000000</t>
+  </si>
+  <si>
+    <t>31669000000</t>
+  </si>
+  <si>
+    <t>28826000000</t>
+  </si>
+  <si>
+    <t>30906000000</t>
+  </si>
+  <si>
+    <t>33424000000</t>
+  </si>
+  <si>
+    <t>36198000000</t>
+  </si>
+  <si>
+    <t>39231000000</t>
+  </si>
+  <si>
+    <t>42754000000</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>7.39E+11</t>
+  </si>
+  <si>
+    <t>7.53E+11</t>
+  </si>
+  <si>
+    <t>8.88E+11</t>
+  </si>
+  <si>
+    <t>1.02E+12</t>
+  </si>
+  <si>
+    <t>1.16E+12</t>
+  </si>
+  <si>
+    <t>1.31E+12</t>
+  </si>
+  <si>
+    <t>1.46E+12</t>
+  </si>
+  <si>
+    <t>1.54E+12</t>
+  </si>
+  <si>
+    <t>1.61E+12</t>
+  </si>
+  <si>
+    <t>1.79E+12</t>
+  </si>
+  <si>
+    <t>1.83E+12</t>
+  </si>
+  <si>
+    <t>1.84E+12</t>
+  </si>
+  <si>
+    <t>1.62E+12</t>
+  </si>
+  <si>
+    <t>1.68E+12</t>
+  </si>
+  <si>
+    <t>1.77E+12</t>
+  </si>
+  <si>
+    <t>1.86E+12</t>
+  </si>
+  <si>
+    <t>1.95E+12</t>
+  </si>
+  <si>
+    <t>2.04E+12</t>
+  </si>
+  <si>
+    <t>CV</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>589000000</t>
+  </si>
+  <si>
+    <t>616000000</t>
+  </si>
+  <si>
+    <t>679000000</t>
+  </si>
+  <si>
+    <t>891000000</t>
+  </si>
+  <si>
+    <t>1023000000</t>
+  </si>
+  <si>
+    <t>1090000000</t>
+  </si>
+  <si>
+    <t>1237000000</t>
+  </si>
+  <si>
+    <t>1514000000</t>
+  </si>
+  <si>
+    <t>1789000000</t>
+  </si>
+  <si>
+    <t>1712000000</t>
+  </si>
+  <si>
+    <t>1664000000</t>
+  </si>
+  <si>
+    <t>1865000000</t>
+  </si>
+  <si>
+    <t>1755000000</t>
+  </si>
+  <si>
+    <t>1860000000</t>
+  </si>
+  <si>
+    <t>1899000000</t>
+  </si>
+  <si>
+    <t>1802000000</t>
+  </si>
+  <si>
+    <t>1929000000</t>
+  </si>
+  <si>
+    <t>2077000000</t>
+  </si>
+  <si>
+    <t>2242000000</t>
+  </si>
+  <si>
+    <t>2415000000</t>
+  </si>
+  <si>
+    <t>2621000000</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CAR</t>
+  </si>
+  <si>
+    <t>885000000</t>
+  </si>
+  <si>
+    <t>897000000</t>
+  </si>
+  <si>
+    <t>963000000</t>
+  </si>
+  <si>
+    <t>1110000000</t>
+  </si>
+  <si>
+    <t>1257000000</t>
+  </si>
+  <si>
+    <t>1337000000</t>
+  </si>
+  <si>
+    <t>1461000000</t>
+  </si>
+  <si>
+    <t>1698000000</t>
+  </si>
+  <si>
+    <t>1985000000</t>
+  </si>
+  <si>
+    <t>1982000000</t>
+  </si>
+  <si>
+    <t>1986000000</t>
+  </si>
+  <si>
+    <t>2171000000</t>
+  </si>
+  <si>
+    <t>1545000000</t>
+  </si>
+  <si>
+    <t>1786000000</t>
+  </si>
+  <si>
+    <t>1801000000</t>
+  </si>
+  <si>
+    <t>2044000000</t>
+  </si>
+  <si>
+    <t>2263000000</t>
+  </si>
+  <si>
+    <t>2500000000</t>
+  </si>
+  <si>
+    <t>2739000000</t>
+  </si>
+  <si>
+    <t>3029000000</t>
+  </si>
+  <si>
+    <t>TD</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>1572000000</t>
+  </si>
+  <si>
+    <t>1936000000</t>
+  </si>
+  <si>
+    <t>2257000000</t>
+  </si>
+  <si>
+    <t>3102000000</t>
+  </si>
+  <si>
+    <t>5003000000</t>
+  </si>
+  <si>
+    <t>6658000000</t>
+  </si>
+  <si>
+    <t>7429000000</t>
+  </si>
+  <si>
+    <t>8651000000</t>
+  </si>
+  <si>
+    <t>10401000000</t>
+  </si>
+  <si>
+    <t>9278000000</t>
+  </si>
+  <si>
+    <t>10678000000</t>
+  </si>
+  <si>
+    <t>12168000000</t>
+  </si>
+  <si>
+    <t>12375000000</t>
+  </si>
+  <si>
+    <t>12951000000</t>
+  </si>
+  <si>
+    <t>13947000000</t>
+  </si>
+  <si>
+    <t>12016000000</t>
+  </si>
+  <si>
+    <t>13465000000</t>
+  </si>
+  <si>
+    <t>15460000000</t>
+  </si>
+  <si>
+    <t>16863000000</t>
+  </si>
+  <si>
+    <t>18493000000</t>
+  </si>
+  <si>
+    <t>19738000000</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>77982000000</t>
+  </si>
+  <si>
+    <t>71285000000</t>
+  </si>
+  <si>
+    <t>70103000000</t>
+  </si>
+  <si>
+    <t>76098000000</t>
+  </si>
+  <si>
+    <t>99270000000</t>
+  </si>
+  <si>
+    <t>1.23E+11</t>
+  </si>
+  <si>
+    <t>1.55E+11</t>
+  </si>
+  <si>
+    <t>1.80E+11</t>
+  </si>
+  <si>
+    <t>1.72E+11</t>
+  </si>
+  <si>
+    <t>2.17E+11</t>
+  </si>
+  <si>
+    <t>2.51E+11</t>
+  </si>
+  <si>
+    <t>2.65E+11</t>
+  </si>
+  <si>
+    <t>2.77E+11</t>
+  </si>
+  <si>
+    <t>2.50E+11</t>
+  </si>
+  <si>
+    <t>2.75E+11</t>
+  </si>
+  <si>
+    <t>2.90E+11</t>
+  </si>
+  <si>
+    <t>3.06E+11</t>
+  </si>
+  <si>
+    <t>3.25E+11</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>1.19E+12</t>
+  </si>
+  <si>
+    <t>1.65E+12</t>
+  </si>
+  <si>
+    <t>1.94E+12</t>
+  </si>
+  <si>
+    <t>2.29E+12</t>
+  </si>
+  <si>
+    <t>2.79E+12</t>
+  </si>
+  <si>
+    <t>3.50E+12</t>
+  </si>
+  <si>
+    <t>4.55E+12</t>
+  </si>
+  <si>
+    <t>5.11E+12</t>
+  </si>
+  <si>
+    <t>5.95E+12</t>
+  </si>
+  <si>
+    <t>7.31E+12</t>
+  </si>
+  <si>
+    <t>8.39E+12</t>
+  </si>
+  <si>
+    <t>9.47E+12</t>
+  </si>
+  <si>
+    <t>1.04E+13</t>
+  </si>
+  <si>
+    <t>1.12E+13</t>
+  </si>
+  <si>
+    <t>1.20E+13</t>
+  </si>
+  <si>
+    <t>1.29E+13</t>
+  </si>
+  <si>
+    <t>1.39E+13</t>
+  </si>
+  <si>
+    <t>1.50E+13</t>
+  </si>
+  <si>
+    <t>1.62E+13</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>99876000000</t>
+  </si>
+  <si>
+    <t>98212000000</t>
+  </si>
+  <si>
+    <t>97963000000</t>
+  </si>
+  <si>
+    <t>94641000000</t>
+  </si>
+  <si>
+    <t>1.47E+11</t>
+  </si>
+  <si>
+    <t>1.63E+11</t>
+  </si>
+  <si>
+    <t>2.07E+11</t>
+  </si>
+  <si>
+    <t>2.44E+11</t>
+  </si>
+  <si>
+    <t>2.34E+11</t>
+  </si>
+  <si>
+    <t>2.87E+11</t>
+  </si>
+  <si>
+    <t>3.36E+11</t>
+  </si>
+  <si>
+    <t>3.70E+11</t>
+  </si>
+  <si>
+    <t>3.78E+11</t>
+  </si>
+  <si>
+    <t>3.85E+11</t>
+  </si>
+  <si>
+    <t>3.32E+11</t>
+  </si>
+  <si>
+    <t>3.60E+11</t>
+  </si>
+  <si>
+    <t>4.19E+11</t>
+  </si>
+  <si>
+    <t>4.49E+11</t>
+  </si>
+  <si>
+    <t>4.83E+11</t>
+  </si>
+  <si>
+    <t>KM</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>202000000</t>
+  </si>
+  <si>
+    <t>220000000</t>
+  </si>
+  <si>
+    <t>252000000</t>
+  </si>
+  <si>
+    <t>325000000</t>
+  </si>
+  <si>
+    <t>363000000</t>
+  </si>
+  <si>
+    <t>388000000</t>
+  </si>
+  <si>
+    <t>404000000</t>
+  </si>
+  <si>
+    <t>466000000</t>
+  </si>
+  <si>
+    <t>533000000</t>
+  </si>
+  <si>
+    <t>537000000</t>
+  </si>
+  <si>
+    <t>544000000</t>
+  </si>
+  <si>
+    <t>611000000</t>
+  </si>
+  <si>
+    <t>596000000</t>
+  </si>
+  <si>
+    <t>658000000</t>
+  </si>
+  <si>
+    <t>717000000</t>
+  </si>
+  <si>
+    <t>677000000</t>
+  </si>
+  <si>
+    <t>728000000</t>
+  </si>
+  <si>
+    <t>788000000</t>
+  </si>
+  <si>
+    <t>854000000</t>
+  </si>
+  <si>
+    <t>924000000</t>
+  </si>
+  <si>
+    <t>1008000000</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>Congo</t>
+  </si>
+  <si>
+    <t>3220000000</t>
+  </si>
+  <si>
+    <t>2794000000</t>
+  </si>
+  <si>
+    <t>3020000000</t>
+  </si>
+  <si>
+    <t>3503000000</t>
+  </si>
+  <si>
+    <t>4655000000</t>
+  </si>
+  <si>
+    <t>6098000000</t>
+  </si>
+  <si>
+    <t>7738000000</t>
+  </si>
+  <si>
+    <t>8407000000</t>
+  </si>
+  <si>
+    <t>11915000000</t>
+  </si>
+  <si>
+    <t>9618000000</t>
+  </si>
+  <si>
+    <t>12029000000</t>
+  </si>
+  <si>
+    <t>14433000000</t>
+  </si>
+  <si>
+    <t>13678000000</t>
+  </si>
+  <si>
+    <t>13478000000</t>
+  </si>
+  <si>
+    <t>13502000000</t>
+  </si>
+  <si>
+    <t>10175000000</t>
+  </si>
+  <si>
+    <t>12038000000</t>
+  </si>
+  <si>
+    <t>14619000000</t>
+  </si>
+  <si>
+    <t>15155000000</t>
+  </si>
+  <si>
+    <t>15093000000</t>
+  </si>
+  <si>
+    <t>15148000000</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>15947000000</t>
+  </si>
+  <si>
+    <t>16404000000</t>
+  </si>
+  <si>
+    <t>16844000000</t>
+  </si>
+  <si>
+    <t>17518000000</t>
+  </si>
+  <si>
+    <t>18595000000</t>
+  </si>
+  <si>
+    <t>19965000000</t>
+  </si>
+  <si>
+    <t>22526000000</t>
+  </si>
+  <si>
+    <t>26322000000</t>
+  </si>
+  <si>
+    <t>29838000000</t>
+  </si>
+  <si>
+    <t>29383000000</t>
+  </si>
+  <si>
+    <t>36298000000</t>
+  </si>
+  <si>
+    <t>41237000000</t>
+  </si>
+  <si>
+    <t>45301000000</t>
+  </si>
+  <si>
+    <t>49237000000</t>
+  </si>
+  <si>
+    <t>48144000000</t>
+  </si>
+  <si>
+    <t>52800000000</t>
+  </si>
+  <si>
+    <t>55677000000</t>
+  </si>
+  <si>
+    <t>59219000000</t>
+  </si>
+  <si>
+    <t>62796000000</t>
+  </si>
+  <si>
+    <t>66606000000</t>
+  </si>
+  <si>
+    <t>70901000000</t>
+  </si>
+  <si>
     <t>CI</t>
   </si>
   <si>
-    <t>CÃ´te d'Ivoire</t>
+    <t>Cote d'Ivoire</t>
   </si>
   <si>
     <t>10748000000</t>
@@ -1897,801 +2692,6 @@
     <t>51644000000</t>
   </si>
   <si>
-    <t>KH</t>
-  </si>
-  <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>3667000000</t>
-  </si>
-  <si>
-    <t>3992000000</t>
-  </si>
-  <si>
-    <t>4289000000</t>
-  </si>
-  <si>
-    <t>4665000000</t>
-  </si>
-  <si>
-    <t>5334000000</t>
-  </si>
-  <si>
-    <t>6287000000</t>
-  </si>
-  <si>
-    <t>7268000000</t>
-  </si>
-  <si>
-    <t>8630000000</t>
-  </si>
-  <si>
-    <t>10342000000</t>
-  </si>
-  <si>
-    <t>10391000000</t>
-  </si>
-  <si>
-    <t>11232000000</t>
-  </si>
-  <si>
-    <t>12818000000</t>
-  </si>
-  <si>
-    <t>14057000000</t>
-  </si>
-  <si>
-    <t>15362000000</t>
-  </si>
-  <si>
-    <t>16551000000</t>
-  </si>
-  <si>
-    <t>17814000000</t>
-  </si>
-  <si>
-    <t>19392000000</t>
-  </si>
-  <si>
-    <t>21088000000</t>
-  </si>
-  <si>
-    <t>23031000000</t>
-  </si>
-  <si>
-    <t>25126000000</t>
-  </si>
-  <si>
-    <t>27417000000</t>
-  </si>
-  <si>
-    <t>CM</t>
-  </si>
-  <si>
-    <t>Cameroon</t>
-  </si>
-  <si>
-    <t>9272000000</t>
-  </si>
-  <si>
-    <t>9638000000</t>
-  </si>
-  <si>
-    <t>10888000000</t>
-  </si>
-  <si>
-    <t>13630000000</t>
-  </si>
-  <si>
-    <t>15784000000</t>
-  </si>
-  <si>
-    <t>16617000000</t>
-  </si>
-  <si>
-    <t>17970000000</t>
-  </si>
-  <si>
-    <t>20461000000</t>
-  </si>
-  <si>
-    <t>23432000000</t>
-  </si>
-  <si>
-    <t>23442000000</t>
-  </si>
-  <si>
-    <t>23667000000</t>
-  </si>
-  <si>
-    <t>26612000000</t>
-  </si>
-  <si>
-    <t>26487000000</t>
-  </si>
-  <si>
-    <t>29576000000</t>
-  </si>
-  <si>
-    <t>31669000000</t>
-  </si>
-  <si>
-    <t>28826000000</t>
-  </si>
-  <si>
-    <t>30906000000</t>
-  </si>
-  <si>
-    <t>33424000000</t>
-  </si>
-  <si>
-    <t>36198000000</t>
-  </si>
-  <si>
-    <t>39231000000</t>
-  </si>
-  <si>
-    <t>42754000000</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Canada</t>
-  </si>
-  <si>
-    <t>7.39E+11</t>
-  </si>
-  <si>
-    <t>7.53E+11</t>
-  </si>
-  <si>
-    <t>8.88E+11</t>
-  </si>
-  <si>
-    <t>1.02E+12</t>
-  </si>
-  <si>
-    <t>1.16E+12</t>
-  </si>
-  <si>
-    <t>1.31E+12</t>
-  </si>
-  <si>
-    <t>1.46E+12</t>
-  </si>
-  <si>
-    <t>1.54E+12</t>
-  </si>
-  <si>
-    <t>1.61E+12</t>
-  </si>
-  <si>
-    <t>1.79E+12</t>
-  </si>
-  <si>
-    <t>1.83E+12</t>
-  </si>
-  <si>
-    <t>1.84E+12</t>
-  </si>
-  <si>
-    <t>1.62E+12</t>
-  </si>
-  <si>
-    <t>1.68E+12</t>
-  </si>
-  <si>
-    <t>1.77E+12</t>
-  </si>
-  <si>
-    <t>1.86E+12</t>
-  </si>
-  <si>
-    <t>1.95E+12</t>
-  </si>
-  <si>
-    <t>2.04E+12</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>Cape Verde</t>
-  </si>
-  <si>
-    <t>589000000</t>
-  </si>
-  <si>
-    <t>616000000</t>
-  </si>
-  <si>
-    <t>679000000</t>
-  </si>
-  <si>
-    <t>891000000</t>
-  </si>
-  <si>
-    <t>1023000000</t>
-  </si>
-  <si>
-    <t>1090000000</t>
-  </si>
-  <si>
-    <t>1237000000</t>
-  </si>
-  <si>
-    <t>1514000000</t>
-  </si>
-  <si>
-    <t>1789000000</t>
-  </si>
-  <si>
-    <t>1712000000</t>
-  </si>
-  <si>
-    <t>1664000000</t>
-  </si>
-  <si>
-    <t>1865000000</t>
-  </si>
-  <si>
-    <t>1755000000</t>
-  </si>
-  <si>
-    <t>1860000000</t>
-  </si>
-  <si>
-    <t>1899000000</t>
-  </si>
-  <si>
-    <t>1802000000</t>
-  </si>
-  <si>
-    <t>1929000000</t>
-  </si>
-  <si>
-    <t>2077000000</t>
-  </si>
-  <si>
-    <t>2242000000</t>
-  </si>
-  <si>
-    <t>2415000000</t>
-  </si>
-  <si>
-    <t>2621000000</t>
-  </si>
-  <si>
-    <t>CF</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>885000000</t>
-  </si>
-  <si>
-    <t>897000000</t>
-  </si>
-  <si>
-    <t>963000000</t>
-  </si>
-  <si>
-    <t>1110000000</t>
-  </si>
-  <si>
-    <t>1257000000</t>
-  </si>
-  <si>
-    <t>1337000000</t>
-  </si>
-  <si>
-    <t>1461000000</t>
-  </si>
-  <si>
-    <t>1698000000</t>
-  </si>
-  <si>
-    <t>1985000000</t>
-  </si>
-  <si>
-    <t>1982000000</t>
-  </si>
-  <si>
-    <t>1986000000</t>
-  </si>
-  <si>
-    <t>2171000000</t>
-  </si>
-  <si>
-    <t>1545000000</t>
-  </si>
-  <si>
-    <t>1786000000</t>
-  </si>
-  <si>
-    <t>1801000000</t>
-  </si>
-  <si>
-    <t>2044000000</t>
-  </si>
-  <si>
-    <t>2263000000</t>
-  </si>
-  <si>
-    <t>2500000000</t>
-  </si>
-  <si>
-    <t>2739000000</t>
-  </si>
-  <si>
-    <t>3029000000</t>
-  </si>
-  <si>
-    <t>TD</t>
-  </si>
-  <si>
-    <t>Chad</t>
-  </si>
-  <si>
-    <t>1572000000</t>
-  </si>
-  <si>
-    <t>1936000000</t>
-  </si>
-  <si>
-    <t>2257000000</t>
-  </si>
-  <si>
-    <t>3102000000</t>
-  </si>
-  <si>
-    <t>5003000000</t>
-  </si>
-  <si>
-    <t>6658000000</t>
-  </si>
-  <si>
-    <t>7429000000</t>
-  </si>
-  <si>
-    <t>8651000000</t>
-  </si>
-  <si>
-    <t>10401000000</t>
-  </si>
-  <si>
-    <t>9278000000</t>
-  </si>
-  <si>
-    <t>10678000000</t>
-  </si>
-  <si>
-    <t>12168000000</t>
-  </si>
-  <si>
-    <t>12375000000</t>
-  </si>
-  <si>
-    <t>12951000000</t>
-  </si>
-  <si>
-    <t>13947000000</t>
-  </si>
-  <si>
-    <t>12016000000</t>
-  </si>
-  <si>
-    <t>13465000000</t>
-  </si>
-  <si>
-    <t>15460000000</t>
-  </si>
-  <si>
-    <t>16863000000</t>
-  </si>
-  <si>
-    <t>18493000000</t>
-  </si>
-  <si>
-    <t>19738000000</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>Chile</t>
-  </si>
-  <si>
-    <t>77982000000</t>
-  </si>
-  <si>
-    <t>71285000000</t>
-  </si>
-  <si>
-    <t>70103000000</t>
-  </si>
-  <si>
-    <t>76098000000</t>
-  </si>
-  <si>
-    <t>99270000000</t>
-  </si>
-  <si>
-    <t>1.23E+11</t>
-  </si>
-  <si>
-    <t>1.55E+11</t>
-  </si>
-  <si>
-    <t>1.80E+11</t>
-  </si>
-  <si>
-    <t>1.72E+11</t>
-  </si>
-  <si>
-    <t>2.17E+11</t>
-  </si>
-  <si>
-    <t>2.51E+11</t>
-  </si>
-  <si>
-    <t>2.65E+11</t>
-  </si>
-  <si>
-    <t>2.77E+11</t>
-  </si>
-  <si>
-    <t>2.50E+11</t>
-  </si>
-  <si>
-    <t>2.75E+11</t>
-  </si>
-  <si>
-    <t>2.90E+11</t>
-  </si>
-  <si>
-    <t>3.06E+11</t>
-  </si>
-  <si>
-    <t>3.25E+11</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>1.19E+12</t>
-  </si>
-  <si>
-    <t>1.65E+12</t>
-  </si>
-  <si>
-    <t>1.94E+12</t>
-  </si>
-  <si>
-    <t>2.29E+12</t>
-  </si>
-  <si>
-    <t>2.79E+12</t>
-  </si>
-  <si>
-    <t>3.50E+12</t>
-  </si>
-  <si>
-    <t>4.55E+12</t>
-  </si>
-  <si>
-    <t>5.11E+12</t>
-  </si>
-  <si>
-    <t>5.95E+12</t>
-  </si>
-  <si>
-    <t>7.31E+12</t>
-  </si>
-  <si>
-    <t>8.39E+12</t>
-  </si>
-  <si>
-    <t>9.47E+12</t>
-  </si>
-  <si>
-    <t>1.04E+13</t>
-  </si>
-  <si>
-    <t>1.12E+13</t>
-  </si>
-  <si>
-    <t>1.20E+13</t>
-  </si>
-  <si>
-    <t>1.29E+13</t>
-  </si>
-  <si>
-    <t>1.39E+13</t>
-  </si>
-  <si>
-    <t>1.50E+13</t>
-  </si>
-  <si>
-    <t>1.62E+13</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>99876000000</t>
-  </si>
-  <si>
-    <t>98212000000</t>
-  </si>
-  <si>
-    <t>97963000000</t>
-  </si>
-  <si>
-    <t>94641000000</t>
-  </si>
-  <si>
-    <t>1.47E+11</t>
-  </si>
-  <si>
-    <t>1.63E+11</t>
-  </si>
-  <si>
-    <t>2.07E+11</t>
-  </si>
-  <si>
-    <t>2.44E+11</t>
-  </si>
-  <si>
-    <t>2.34E+11</t>
-  </si>
-  <si>
-    <t>2.87E+11</t>
-  </si>
-  <si>
-    <t>3.36E+11</t>
-  </si>
-  <si>
-    <t>3.70E+11</t>
-  </si>
-  <si>
-    <t>3.78E+11</t>
-  </si>
-  <si>
-    <t>3.85E+11</t>
-  </si>
-  <si>
-    <t>3.32E+11</t>
-  </si>
-  <si>
-    <t>3.60E+11</t>
-  </si>
-  <si>
-    <t>4.19E+11</t>
-  </si>
-  <si>
-    <t>4.49E+11</t>
-  </si>
-  <si>
-    <t>4.83E+11</t>
-  </si>
-  <si>
-    <t>KM</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>202000000</t>
-  </si>
-  <si>
-    <t>220000000</t>
-  </si>
-  <si>
-    <t>252000000</t>
-  </si>
-  <si>
-    <t>325000000</t>
-  </si>
-  <si>
-    <t>363000000</t>
-  </si>
-  <si>
-    <t>388000000</t>
-  </si>
-  <si>
-    <t>404000000</t>
-  </si>
-  <si>
-    <t>466000000</t>
-  </si>
-  <si>
-    <t>533000000</t>
-  </si>
-  <si>
-    <t>537000000</t>
-  </si>
-  <si>
-    <t>544000000</t>
-  </si>
-  <si>
-    <t>611000000</t>
-  </si>
-  <si>
-    <t>596000000</t>
-  </si>
-  <si>
-    <t>658000000</t>
-  </si>
-  <si>
-    <t>717000000</t>
-  </si>
-  <si>
-    <t>677000000</t>
-  </si>
-  <si>
-    <t>728000000</t>
-  </si>
-  <si>
-    <t>788000000</t>
-  </si>
-  <si>
-    <t>854000000</t>
-  </si>
-  <si>
-    <t>924000000</t>
-  </si>
-  <si>
-    <t>1008000000</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>Congo</t>
-  </si>
-  <si>
-    <t>3220000000</t>
-  </si>
-  <si>
-    <t>2794000000</t>
-  </si>
-  <si>
-    <t>3020000000</t>
-  </si>
-  <si>
-    <t>3503000000</t>
-  </si>
-  <si>
-    <t>4655000000</t>
-  </si>
-  <si>
-    <t>6098000000</t>
-  </si>
-  <si>
-    <t>7738000000</t>
-  </si>
-  <si>
-    <t>8407000000</t>
-  </si>
-  <si>
-    <t>11915000000</t>
-  </si>
-  <si>
-    <t>9618000000</t>
-  </si>
-  <si>
-    <t>12029000000</t>
-  </si>
-  <si>
-    <t>14433000000</t>
-  </si>
-  <si>
-    <t>13678000000</t>
-  </si>
-  <si>
-    <t>13478000000</t>
-  </si>
-  <si>
-    <t>13502000000</t>
-  </si>
-  <si>
-    <t>10175000000</t>
-  </si>
-  <si>
-    <t>12038000000</t>
-  </si>
-  <si>
-    <t>14619000000</t>
-  </si>
-  <si>
-    <t>15155000000</t>
-  </si>
-  <si>
-    <t>15093000000</t>
-  </si>
-  <si>
-    <t>15148000000</t>
-  </si>
-  <si>
-    <t>CR</t>
-  </si>
-  <si>
-    <t>Costa Rica</t>
-  </si>
-  <si>
-    <t>15947000000</t>
-  </si>
-  <si>
-    <t>16404000000</t>
-  </si>
-  <si>
-    <t>16844000000</t>
-  </si>
-  <si>
-    <t>17518000000</t>
-  </si>
-  <si>
-    <t>18595000000</t>
-  </si>
-  <si>
-    <t>19965000000</t>
-  </si>
-  <si>
-    <t>22526000000</t>
-  </si>
-  <si>
-    <t>26322000000</t>
-  </si>
-  <si>
-    <t>29838000000</t>
-  </si>
-  <si>
-    <t>29383000000</t>
-  </si>
-  <si>
-    <t>36298000000</t>
-  </si>
-  <si>
-    <t>41237000000</t>
-  </si>
-  <si>
-    <t>45301000000</t>
-  </si>
-  <si>
-    <t>49237000000</t>
-  </si>
-  <si>
-    <t>48144000000</t>
-  </si>
-  <si>
-    <t>52800000000</t>
-  </si>
-  <si>
-    <t>55677000000</t>
-  </si>
-  <si>
-    <t>59219000000</t>
-  </si>
-  <si>
-    <t>62796000000</t>
-  </si>
-  <si>
-    <t>66606000000</t>
-  </si>
-  <si>
-    <t>70901000000</t>
-  </si>
-  <si>
     <t>HR</t>
   </si>
   <si>
@@ -8434,7 +8434,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>396000000</t>
@@ -8587,7 +8587,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>72000000</t>
@@ -10057,7 +10057,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>8154000000</t>
@@ -10426,6 +10426,48 @@
     <t>36426500000</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
+    <t>1.55E+12</t>
+  </si>
+  <si>
+    <t>1.53E+12</t>
+  </si>
+  <si>
+    <t>2.30E+12</t>
+  </si>
+  <si>
+    <t>2.42E+12</t>
+  </si>
+  <si>
+    <t>2.59E+12</t>
+  </si>
+  <si>
+    <t>2.96E+12</t>
+  </si>
+  <si>
+    <t>2.32E+12</t>
+  </si>
+  <si>
+    <t>2.68E+12</t>
+  </si>
+  <si>
+    <t>2.98E+12</t>
+  </si>
+  <si>
+    <t>3.14E+12</t>
+  </si>
+  <si>
+    <t>3.33E+12</t>
+  </si>
+  <si>
+    <t>3.52E+12</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
@@ -10456,48 +10498,6 @@
     <t>92629000000</t>
   </si>
   <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
-  </si>
-  <si>
-    <t>1.55E+12</t>
-  </si>
-  <si>
-    <t>1.53E+12</t>
-  </si>
-  <si>
-    <t>2.30E+12</t>
-  </si>
-  <si>
-    <t>2.42E+12</t>
-  </si>
-  <si>
-    <t>2.59E+12</t>
-  </si>
-  <si>
-    <t>2.96E+12</t>
-  </si>
-  <si>
-    <t>2.32E+12</t>
-  </si>
-  <si>
-    <t>2.68E+12</t>
-  </si>
-  <si>
-    <t>2.98E+12</t>
-  </si>
-  <si>
-    <t>3.14E+12</t>
-  </si>
-  <si>
-    <t>3.33E+12</t>
-  </si>
-  <si>
-    <t>3.52E+12</t>
-  </si>
-  <si>
     <t>UY</t>
   </si>
   <si>
@@ -11098,7 +11098,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -20083,7 +20083,7 @@
         <v>2001</v>
       </c>
       <c r="D612" t="s">
-        <v>653</v>
+        <v>166</v>
       </c>
     </row>
     <row r="613">
@@ -20097,7 +20097,7 @@
         <v>2002</v>
       </c>
       <c r="D613" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="614">
@@ -20111,7 +20111,7 @@
         <v>2003</v>
       </c>
       <c r="D614" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="615">
@@ -20125,7 +20125,7 @@
         <v>2004</v>
       </c>
       <c r="D615" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="616">
@@ -20139,7 +20139,7 @@
         <v>2005</v>
       </c>
       <c r="D616" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="617">
@@ -20153,7 +20153,7 @@
         <v>2006</v>
       </c>
       <c r="D617" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="618">
@@ -20167,7 +20167,7 @@
         <v>2007</v>
       </c>
       <c r="D618" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="619">
@@ -20181,7 +20181,7 @@
         <v>2008</v>
       </c>
       <c r="D619" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="620">
@@ -20195,7 +20195,7 @@
         <v>2009</v>
       </c>
       <c r="D620" t="s">
-        <v>661</v>
+        <v>177</v>
       </c>
     </row>
     <row r="621">
@@ -20209,7 +20209,7 @@
         <v>2010</v>
       </c>
       <c r="D621" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
     </row>
     <row r="622">
@@ -20223,7 +20223,7 @@
         <v>2011</v>
       </c>
       <c r="D622" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="623">
@@ -20237,7 +20237,7 @@
         <v>2012</v>
       </c>
       <c r="D623" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="624">
@@ -20251,7 +20251,7 @@
         <v>2013</v>
       </c>
       <c r="D624" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="625">
@@ -20265,7 +20265,7 @@
         <v>2014</v>
       </c>
       <c r="D625" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
     </row>
     <row r="626">
@@ -20279,7 +20279,7 @@
         <v>2015</v>
       </c>
       <c r="D626" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="627">
@@ -20293,7 +20293,7 @@
         <v>2016</v>
       </c>
       <c r="D627" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="628">
@@ -20307,7 +20307,7 @@
         <v>2017</v>
       </c>
       <c r="D628" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="629">
@@ -20321,7 +20321,7 @@
         <v>2018</v>
       </c>
       <c r="D629" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="630">
@@ -20335,7 +20335,7 @@
         <v>2019</v>
       </c>
       <c r="D630" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="631">
@@ -20349,225 +20349,225 @@
         <v>2020</v>
       </c>
       <c r="D631" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B632" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C632" t="n">
         <v>2000</v>
       </c>
       <c r="D632" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B633" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C633" t="n">
         <v>2001</v>
       </c>
       <c r="D633" t="s">
-        <v>166</v>
+        <v>673</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B634" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C634" t="n">
         <v>2002</v>
       </c>
       <c r="D634" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B635" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C635" t="n">
         <v>2003</v>
       </c>
       <c r="D635" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B636" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C636" t="n">
         <v>2004</v>
       </c>
       <c r="D636" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B637" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C637" t="n">
         <v>2005</v>
       </c>
       <c r="D637" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B638" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C638" t="n">
         <v>2006</v>
       </c>
       <c r="D638" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B639" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C639" t="n">
         <v>2007</v>
       </c>
       <c r="D639" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B640" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C640" t="n">
         <v>2008</v>
       </c>
       <c r="D640" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B641" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C641" t="n">
         <v>2009</v>
       </c>
       <c r="D641" t="s">
-        <v>177</v>
+        <v>681</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B642" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C642" t="n">
         <v>2010</v>
       </c>
       <c r="D642" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B643" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C643" t="n">
         <v>2011</v>
       </c>
       <c r="D643" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B644" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C644" t="n">
         <v>2012</v>
       </c>
       <c r="D644" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B645" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C645" t="n">
         <v>2013</v>
       </c>
       <c r="D645" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B646" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C646" t="n">
         <v>2014</v>
       </c>
       <c r="D646" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B647" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C647" t="n">
         <v>2015</v>
@@ -20578,10 +20578,10 @@
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B648" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C648" t="n">
         <v>2016</v>
@@ -20592,10 +20592,10 @@
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B649" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C649" t="n">
         <v>2017</v>
@@ -20606,10 +20606,10 @@
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B650" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C650" t="n">
         <v>2018</v>
@@ -20620,10 +20620,10 @@
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B651" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C651" t="n">
         <v>2019</v>
@@ -20634,10 +20634,10 @@
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B652" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C652" t="n">
         <v>2020</v>
@@ -20811,7 +20811,7 @@
         <v>2011</v>
       </c>
       <c r="D664" t="s">
-        <v>706</v>
+        <v>377</v>
       </c>
     </row>
     <row r="665">
@@ -20825,7 +20825,7 @@
         <v>2012</v>
       </c>
       <c r="D665" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="666">
@@ -20839,7 +20839,7 @@
         <v>2013</v>
       </c>
       <c r="D666" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="667">
@@ -20853,7 +20853,7 @@
         <v>2014</v>
       </c>
       <c r="D667" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="668">
@@ -20867,7 +20867,7 @@
         <v>2015</v>
       </c>
       <c r="D668" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="669">
@@ -20881,7 +20881,7 @@
         <v>2016</v>
       </c>
       <c r="D669" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="670">
@@ -20895,7 +20895,7 @@
         <v>2017</v>
       </c>
       <c r="D670" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="671">
@@ -20909,7 +20909,7 @@
         <v>2018</v>
       </c>
       <c r="D671" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="672">
@@ -20923,7 +20923,7 @@
         <v>2019</v>
       </c>
       <c r="D672" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="673">
@@ -20937,183 +20937,183 @@
         <v>2020</v>
       </c>
       <c r="D673" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="s">
+        <v>715</v>
+      </c>
+      <c r="B674" t="s">
         <v>716</v>
-      </c>
-      <c r="B674" t="s">
-        <v>717</v>
       </c>
       <c r="C674" t="n">
         <v>2000</v>
       </c>
       <c r="D674" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" t="s">
+        <v>715</v>
+      </c>
+      <c r="B675" t="s">
         <v>716</v>
-      </c>
-      <c r="B675" t="s">
-        <v>717</v>
       </c>
       <c r="C675" t="n">
         <v>2001</v>
       </c>
       <c r="D675" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="s">
+        <v>715</v>
+      </c>
+      <c r="B676" t="s">
         <v>716</v>
-      </c>
-      <c r="B676" t="s">
-        <v>717</v>
       </c>
       <c r="C676" t="n">
         <v>2002</v>
       </c>
       <c r="D676" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" t="s">
+        <v>715</v>
+      </c>
+      <c r="B677" t="s">
         <v>716</v>
-      </c>
-      <c r="B677" t="s">
-        <v>717</v>
       </c>
       <c r="C677" t="n">
         <v>2003</v>
       </c>
       <c r="D677" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="s">
+        <v>715</v>
+      </c>
+      <c r="B678" t="s">
         <v>716</v>
-      </c>
-      <c r="B678" t="s">
-        <v>717</v>
       </c>
       <c r="C678" t="n">
         <v>2004</v>
       </c>
       <c r="D678" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" t="s">
+        <v>715</v>
+      </c>
+      <c r="B679" t="s">
         <v>716</v>
-      </c>
-      <c r="B679" t="s">
-        <v>717</v>
       </c>
       <c r="C679" t="n">
         <v>2005</v>
       </c>
       <c r="D679" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" t="s">
+        <v>715</v>
+      </c>
+      <c r="B680" t="s">
         <v>716</v>
-      </c>
-      <c r="B680" t="s">
-        <v>717</v>
       </c>
       <c r="C680" t="n">
         <v>2006</v>
       </c>
       <c r="D680" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" t="s">
+        <v>715</v>
+      </c>
+      <c r="B681" t="s">
         <v>716</v>
-      </c>
-      <c r="B681" t="s">
-        <v>717</v>
       </c>
       <c r="C681" t="n">
         <v>2007</v>
       </c>
       <c r="D681" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" t="s">
+        <v>715</v>
+      </c>
+      <c r="B682" t="s">
         <v>716</v>
-      </c>
-      <c r="B682" t="s">
-        <v>717</v>
       </c>
       <c r="C682" t="n">
         <v>2008</v>
       </c>
       <c r="D682" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="s">
+        <v>715</v>
+      </c>
+      <c r="B683" t="s">
         <v>716</v>
-      </c>
-      <c r="B683" t="s">
-        <v>717</v>
       </c>
       <c r="C683" t="n">
         <v>2009</v>
       </c>
       <c r="D683" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" t="s">
+        <v>715</v>
+      </c>
+      <c r="B684" t="s">
         <v>716</v>
-      </c>
-      <c r="B684" t="s">
-        <v>717</v>
       </c>
       <c r="C684" t="n">
         <v>2010</v>
       </c>
       <c r="D684" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" t="s">
+        <v>715</v>
+      </c>
+      <c r="B685" t="s">
         <v>716</v>
-      </c>
-      <c r="B685" t="s">
-        <v>717</v>
       </c>
       <c r="C685" t="n">
         <v>2011</v>
       </c>
       <c r="D685" t="s">
-        <v>377</v>
+        <v>728</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" t="s">
+        <v>715</v>
+      </c>
+      <c r="B686" t="s">
         <v>716</v>
-      </c>
-      <c r="B686" t="s">
-        <v>717</v>
       </c>
       <c r="C686" t="n">
         <v>2012</v>
@@ -21124,10 +21124,10 @@
     </row>
     <row r="687">
       <c r="A687" t="s">
+        <v>715</v>
+      </c>
+      <c r="B687" t="s">
         <v>716</v>
-      </c>
-      <c r="B687" t="s">
-        <v>717</v>
       </c>
       <c r="C687" t="n">
         <v>2013</v>
@@ -21138,10 +21138,10 @@
     </row>
     <row r="688">
       <c r="A688" t="s">
+        <v>715</v>
+      </c>
+      <c r="B688" t="s">
         <v>716</v>
-      </c>
-      <c r="B688" t="s">
-        <v>717</v>
       </c>
       <c r="C688" t="n">
         <v>2014</v>
@@ -21152,10 +21152,10 @@
     </row>
     <row r="689">
       <c r="A689" t="s">
+        <v>715</v>
+      </c>
+      <c r="B689" t="s">
         <v>716</v>
-      </c>
-      <c r="B689" t="s">
-        <v>717</v>
       </c>
       <c r="C689" t="n">
         <v>2015</v>
@@ -21166,10 +21166,10 @@
     </row>
     <row r="690">
       <c r="A690" t="s">
+        <v>715</v>
+      </c>
+      <c r="B690" t="s">
         <v>716</v>
-      </c>
-      <c r="B690" t="s">
-        <v>717</v>
       </c>
       <c r="C690" t="n">
         <v>2016</v>
@@ -21180,10 +21180,10 @@
     </row>
     <row r="691">
       <c r="A691" t="s">
+        <v>715</v>
+      </c>
+      <c r="B691" t="s">
         <v>716</v>
-      </c>
-      <c r="B691" t="s">
-        <v>717</v>
       </c>
       <c r="C691" t="n">
         <v>2017</v>
@@ -21194,10 +21194,10 @@
     </row>
     <row r="692">
       <c r="A692" t="s">
+        <v>715</v>
+      </c>
+      <c r="B692" t="s">
         <v>716</v>
-      </c>
-      <c r="B692" t="s">
-        <v>717</v>
       </c>
       <c r="C692" t="n">
         <v>2018</v>
@@ -21208,10 +21208,10 @@
     </row>
     <row r="693">
       <c r="A693" t="s">
+        <v>715</v>
+      </c>
+      <c r="B693" t="s">
         <v>716</v>
-      </c>
-      <c r="B693" t="s">
-        <v>717</v>
       </c>
       <c r="C693" t="n">
         <v>2019</v>
@@ -21222,10 +21222,10 @@
     </row>
     <row r="694">
       <c r="A694" t="s">
+        <v>715</v>
+      </c>
+      <c r="B694" t="s">
         <v>716</v>
-      </c>
-      <c r="B694" t="s">
-        <v>717</v>
       </c>
       <c r="C694" t="n">
         <v>2020</v>
@@ -21343,7 +21343,7 @@
         <v>2007</v>
       </c>
       <c r="D702" t="s">
-        <v>747</v>
+        <v>92</v>
       </c>
     </row>
     <row r="703">
@@ -21357,7 +21357,7 @@
         <v>2008</v>
       </c>
       <c r="D703" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="704">
@@ -21371,7 +21371,7 @@
         <v>2009</v>
       </c>
       <c r="D704" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="705">
@@ -21385,7 +21385,7 @@
         <v>2010</v>
       </c>
       <c r="D705" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="706">
@@ -21399,7 +21399,7 @@
         <v>2011</v>
       </c>
       <c r="D706" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="707">
@@ -21413,7 +21413,7 @@
         <v>2012</v>
       </c>
       <c r="D707" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="708">
@@ -21427,7 +21427,7 @@
         <v>2013</v>
       </c>
       <c r="D708" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="709">
@@ -21441,7 +21441,7 @@
         <v>2014</v>
       </c>
       <c r="D709" t="s">
-        <v>754</v>
+        <v>284</v>
       </c>
     </row>
     <row r="710">
@@ -21455,7 +21455,7 @@
         <v>2015</v>
       </c>
       <c r="D710" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="711">
@@ -21469,7 +21469,7 @@
         <v>2016</v>
       </c>
       <c r="D711" t="s">
-        <v>756</v>
+        <v>183</v>
       </c>
     </row>
     <row r="712">
@@ -21483,7 +21483,7 @@
         <v>2017</v>
       </c>
       <c r="D712" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="713">
@@ -21497,7 +21497,7 @@
         <v>2018</v>
       </c>
       <c r="D713" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="714">
@@ -21511,7 +21511,7 @@
         <v>2019</v>
       </c>
       <c r="D714" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
     <row r="715">
@@ -21525,351 +21525,351 @@
         <v>2020</v>
       </c>
       <c r="D715" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B716" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C716" t="n">
         <v>2000</v>
       </c>
       <c r="D716" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B717" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C717" t="n">
         <v>2001</v>
       </c>
       <c r="D717" t="s">
-        <v>764</v>
+        <v>176</v>
       </c>
     </row>
     <row r="718">
       <c r="A718" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B718" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C718" t="n">
         <v>2002</v>
       </c>
       <c r="D718" t="s">
-        <v>765</v>
+        <v>658</v>
       </c>
     </row>
     <row r="719">
       <c r="A719" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B719" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C719" t="n">
         <v>2003</v>
       </c>
       <c r="D719" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B720" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C720" t="n">
         <v>2004</v>
       </c>
       <c r="D720" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B721" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C721" t="n">
         <v>2005</v>
       </c>
       <c r="D721" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="722">
       <c r="A722" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B722" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C722" t="n">
         <v>2006</v>
       </c>
       <c r="D722" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="723">
       <c r="A723" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B723" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C723" t="n">
         <v>2007</v>
       </c>
       <c r="D723" t="s">
-        <v>92</v>
+        <v>765</v>
       </c>
     </row>
     <row r="724">
       <c r="A724" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B724" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C724" t="n">
         <v>2008</v>
       </c>
       <c r="D724" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
     </row>
     <row r="725">
       <c r="A725" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B725" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C725" t="n">
         <v>2009</v>
       </c>
       <c r="D725" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
     </row>
     <row r="726">
       <c r="A726" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B726" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C726" t="n">
         <v>2010</v>
       </c>
       <c r="D726" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
     </row>
     <row r="727">
       <c r="A727" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B727" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C727" t="n">
         <v>2011</v>
       </c>
       <c r="D727" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="728">
       <c r="A728" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B728" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C728" t="n">
         <v>2012</v>
       </c>
       <c r="D728" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
     </row>
     <row r="729">
       <c r="A729" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B729" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C729" t="n">
         <v>2013</v>
       </c>
       <c r="D729" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
     </row>
     <row r="730">
       <c r="A730" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B730" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C730" t="n">
         <v>2014</v>
       </c>
       <c r="D730" t="s">
-        <v>284</v>
+        <v>772</v>
       </c>
     </row>
     <row r="731">
       <c r="A731" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B731" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C731" t="n">
         <v>2015</v>
       </c>
       <c r="D731" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="732">
       <c r="A732" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B732" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C732" t="n">
         <v>2016</v>
       </c>
       <c r="D732" t="s">
-        <v>183</v>
+        <v>774</v>
       </c>
     </row>
     <row r="733">
       <c r="A733" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B733" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C733" t="n">
         <v>2017</v>
       </c>
       <c r="D733" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="734">
       <c r="A734" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B734" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C734" t="n">
         <v>2018</v>
       </c>
       <c r="D734" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="735">
       <c r="A735" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B735" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C735" t="n">
         <v>2019</v>
       </c>
       <c r="D735" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="736">
       <c r="A736" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B736" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="C736" t="n">
         <v>2020</v>
       </c>
       <c r="D736" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="737">
       <c r="A737" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B737" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C737" t="n">
         <v>2000</v>
       </c>
       <c r="D737" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="738">
       <c r="A738" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B738" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C738" t="n">
         <v>2001</v>
       </c>
       <c r="D738" t="s">
-        <v>176</v>
+        <v>782</v>
       </c>
     </row>
     <row r="739">
       <c r="A739" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B739" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C739" t="n">
         <v>2002</v>
       </c>
       <c r="D739" t="s">
-        <v>681</v>
+        <v>783</v>
       </c>
     </row>
     <row r="740">
       <c r="A740" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B740" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C740" t="n">
         <v>2003</v>
@@ -21880,500 +21880,500 @@
     </row>
     <row r="741">
       <c r="A741" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B741" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C741" t="n">
         <v>2004</v>
       </c>
       <c r="D741" t="s">
-        <v>785</v>
+        <v>55</v>
       </c>
     </row>
     <row r="742">
       <c r="A742" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B742" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C742" t="n">
         <v>2005</v>
       </c>
       <c r="D742" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="743">
       <c r="A743" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B743" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C743" t="n">
         <v>2006</v>
       </c>
       <c r="D743" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="744">
       <c r="A744" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B744" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C744" t="n">
         <v>2007</v>
       </c>
       <c r="D744" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="745">
       <c r="A745" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B745" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C745" t="n">
         <v>2008</v>
       </c>
       <c r="D745" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="746">
       <c r="A746" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B746" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C746" t="n">
         <v>2009</v>
       </c>
       <c r="D746" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="747">
       <c r="A747" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B747" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C747" t="n">
         <v>2010</v>
       </c>
       <c r="D747" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="748">
       <c r="A748" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B748" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C748" t="n">
         <v>2011</v>
       </c>
       <c r="D748" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="749">
       <c r="A749" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B749" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C749" t="n">
         <v>2012</v>
       </c>
       <c r="D749" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="750">
       <c r="A750" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B750" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C750" t="n">
         <v>2013</v>
       </c>
       <c r="D750" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="751">
       <c r="A751" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B751" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C751" t="n">
         <v>2014</v>
       </c>
       <c r="D751" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="752">
       <c r="A752" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B752" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C752" t="n">
         <v>2015</v>
       </c>
       <c r="D752" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="753">
       <c r="A753" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B753" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C753" t="n">
         <v>2016</v>
       </c>
       <c r="D753" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="754">
       <c r="A754" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B754" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C754" t="n">
         <v>2017</v>
       </c>
       <c r="D754" t="s">
-        <v>798</v>
+        <v>189</v>
       </c>
     </row>
     <row r="755">
       <c r="A755" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B755" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C755" t="n">
         <v>2018</v>
       </c>
       <c r="D755" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
     </row>
     <row r="756">
       <c r="A756" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B756" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C756" t="n">
         <v>2019</v>
       </c>
       <c r="D756" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="757">
       <c r="A757" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B757" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C757" t="n">
         <v>2020</v>
       </c>
       <c r="D757" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
     </row>
     <row r="758">
       <c r="A758" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B758" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C758" t="n">
         <v>2000</v>
       </c>
       <c r="D758" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="759">
       <c r="A759" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B759" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C759" t="n">
         <v>2001</v>
       </c>
       <c r="D759" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="760">
       <c r="A760" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B760" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C760" t="n">
         <v>2002</v>
       </c>
       <c r="D760" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="761">
       <c r="A761" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B761" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C761" t="n">
         <v>2003</v>
       </c>
       <c r="D761" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="762">
       <c r="A762" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B762" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C762" t="n">
         <v>2004</v>
       </c>
       <c r="D762" t="s">
-        <v>55</v>
+        <v>806</v>
       </c>
     </row>
     <row r="763">
       <c r="A763" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B763" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C763" t="n">
         <v>2005</v>
       </c>
       <c r="D763" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="764">
       <c r="A764" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B764" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C764" t="n">
         <v>2006</v>
       </c>
       <c r="D764" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="765">
       <c r="A765" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B765" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C765" t="n">
         <v>2007</v>
       </c>
       <c r="D765" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="766">
       <c r="A766" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B766" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C766" t="n">
         <v>2008</v>
       </c>
       <c r="D766" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="767">
       <c r="A767" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B767" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C767" t="n">
         <v>2009</v>
       </c>
       <c r="D767" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="768">
       <c r="A768" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B768" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C768" t="n">
         <v>2010</v>
       </c>
       <c r="D768" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="769">
       <c r="A769" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B769" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C769" t="n">
         <v>2011</v>
       </c>
       <c r="D769" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="770">
       <c r="A770" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B770" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C770" t="n">
         <v>2012</v>
       </c>
       <c r="D770" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="771">
       <c r="A771" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B771" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C771" t="n">
         <v>2013</v>
       </c>
       <c r="D771" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="772">
       <c r="A772" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B772" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C772" t="n">
         <v>2014</v>
       </c>
       <c r="D772" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="773">
       <c r="A773" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B773" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C773" t="n">
         <v>2015</v>
       </c>
       <c r="D773" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="774">
       <c r="A774" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B774" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C774" t="n">
         <v>2016</v>
       </c>
       <c r="D774" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="775">
       <c r="A775" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B775" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C775" t="n">
         <v>2017</v>
       </c>
       <c r="D775" t="s">
-        <v>189</v>
+        <v>819</v>
       </c>
     </row>
     <row r="776">
       <c r="A776" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B776" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C776" t="n">
         <v>2018</v>
@@ -22384,10 +22384,10 @@
     </row>
     <row r="777">
       <c r="A777" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B777" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C777" t="n">
         <v>2019</v>
@@ -22398,10 +22398,10 @@
     </row>
     <row r="778">
       <c r="A778" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B778" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C778" t="n">
         <v>2020</v>
@@ -23751,7 +23751,7 @@
         <v>2011</v>
       </c>
       <c r="D874" t="s">
-        <v>618</v>
+        <v>883</v>
       </c>
     </row>
     <row r="875">
@@ -23975,7 +23975,7 @@
         <v>2006</v>
       </c>
       <c r="D890" t="s">
-        <v>769</v>
+        <v>746</v>
       </c>
     </row>
     <row r="891">
@@ -24031,7 +24031,7 @@
         <v>2010</v>
       </c>
       <c r="D894" t="s">
-        <v>810</v>
+        <v>787</v>
       </c>
     </row>
     <row r="895">
@@ -24059,7 +24059,7 @@
         <v>2012</v>
       </c>
       <c r="D896" t="s">
-        <v>810</v>
+        <v>787</v>
       </c>
     </row>
     <row r="897">
@@ -24241,7 +24241,7 @@
         <v>2004</v>
       </c>
       <c r="D909" t="s">
-        <v>773</v>
+        <v>750</v>
       </c>
     </row>
     <row r="910">
@@ -24255,7 +24255,7 @@
         <v>2005</v>
       </c>
       <c r="D910" t="s">
-        <v>774</v>
+        <v>751</v>
       </c>
     </row>
     <row r="911">
@@ -24367,7 +24367,7 @@
         <v>2013</v>
       </c>
       <c r="D918" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
     </row>
     <row r="919">
@@ -24465,7 +24465,7 @@
         <v>2020</v>
       </c>
       <c r="D925" t="s">
-        <v>816</v>
+        <v>793</v>
       </c>
     </row>
     <row r="926">
@@ -24507,7 +24507,7 @@
         <v>2002</v>
       </c>
       <c r="D928" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
     </row>
     <row r="929">
@@ -26485,7 +26485,7 @@
         <v>2018</v>
       </c>
       <c r="D1070" t="s">
-        <v>879</v>
+        <v>856</v>
       </c>
     </row>
     <row r="1071">
@@ -26541,7 +26541,7 @@
         <v>2001</v>
       </c>
       <c r="D1074" t="s">
-        <v>724</v>
+        <v>701</v>
       </c>
     </row>
     <row r="1075">
@@ -28081,7 +28081,7 @@
         <v>2006</v>
       </c>
       <c r="D1184" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
     </row>
     <row r="1185">
@@ -29467,7 +29467,7 @@
         <v>2000</v>
       </c>
       <c r="D1283" t="s">
-        <v>691</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1284">
@@ -29481,7 +29481,7 @@
         <v>2001</v>
       </c>
       <c r="D1284" t="s">
-        <v>691</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1285">
@@ -30223,7 +30223,7 @@
         <v>2012</v>
       </c>
       <c r="D1337" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
     </row>
     <row r="1338">
@@ -30265,7 +30265,7 @@
         <v>2015</v>
       </c>
       <c r="D1340" t="s">
-        <v>810</v>
+        <v>787</v>
       </c>
     </row>
     <row r="1341">
@@ -30279,7 +30279,7 @@
         <v>2016</v>
       </c>
       <c r="D1341" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
     </row>
     <row r="1342">
@@ -30307,7 +30307,7 @@
         <v>2018</v>
       </c>
       <c r="D1343" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
     </row>
     <row r="1344">
@@ -30335,7 +30335,7 @@
         <v>2020</v>
       </c>
       <c r="D1345" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
     </row>
     <row r="1346">
@@ -32407,7 +32407,7 @@
         <v>2000</v>
       </c>
       <c r="D1493" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
     </row>
     <row r="1494">
@@ -32589,7 +32589,7 @@
         <v>2013</v>
       </c>
       <c r="D1506" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
     </row>
     <row r="1507">
@@ -32603,7 +32603,7 @@
         <v>2014</v>
       </c>
       <c r="D1507" t="s">
-        <v>778</v>
+        <v>755</v>
       </c>
     </row>
     <row r="1508">
@@ -33429,7 +33429,7 @@
         <v>2010</v>
       </c>
       <c r="D1566" t="s">
-        <v>687</v>
+        <v>664</v>
       </c>
     </row>
     <row r="1567">
@@ -33457,7 +33457,7 @@
         <v>2012</v>
       </c>
       <c r="D1568" t="s">
-        <v>686</v>
+        <v>663</v>
       </c>
     </row>
     <row r="1569">
@@ -33863,7 +33863,7 @@
         <v>2020</v>
       </c>
       <c r="D1597" t="s">
-        <v>680</v>
+        <v>657</v>
       </c>
     </row>
     <row r="1598">
@@ -33989,7 +33989,7 @@
         <v>2008</v>
       </c>
       <c r="D1606" t="s">
-        <v>816</v>
+        <v>793</v>
       </c>
     </row>
     <row r="1607">
@@ -34577,7 +34577,7 @@
         <v>2008</v>
       </c>
       <c r="D1648" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
     </row>
     <row r="1649">
@@ -34591,7 +34591,7 @@
         <v>2009</v>
       </c>
       <c r="D1649" t="s">
-        <v>812</v>
+        <v>789</v>
       </c>
     </row>
     <row r="1650">
@@ -35067,7 +35067,7 @@
         <v>2001</v>
       </c>
       <c r="D1683" t="s">
-        <v>679</v>
+        <v>656</v>
       </c>
     </row>
     <row r="1684">
@@ -35123,7 +35123,7 @@
         <v>2005</v>
       </c>
       <c r="D1687" t="s">
-        <v>690</v>
+        <v>667</v>
       </c>
     </row>
     <row r="1688">
@@ -35137,7 +35137,7 @@
         <v>2006</v>
       </c>
       <c r="D1688" t="s">
-        <v>691</v>
+        <v>668</v>
       </c>
     </row>
     <row r="1689">
@@ -35263,7 +35263,7 @@
         <v>2015</v>
       </c>
       <c r="D1697" t="s">
-        <v>686</v>
+        <v>663</v>
       </c>
     </row>
     <row r="1698">
@@ -35291,7 +35291,7 @@
         <v>2017</v>
       </c>
       <c r="D1699" t="s">
-        <v>785</v>
+        <v>762</v>
       </c>
     </row>
     <row r="1700">
@@ -35809,7 +35809,7 @@
         <v>2012</v>
       </c>
       <c r="D1736" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
     </row>
     <row r="1737">
@@ -36453,7 +36453,7 @@
         <v>2016</v>
       </c>
       <c r="D1782" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
     </row>
     <row r="1783">
@@ -37517,7 +37517,7 @@
         <v>2008</v>
       </c>
       <c r="D1858" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
     </row>
     <row r="1859">
@@ -37601,7 +37601,7 @@
         <v>2014</v>
       </c>
       <c r="D1864" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
     </row>
     <row r="1865">
@@ -37937,7 +37937,7 @@
         <v>2017</v>
       </c>
       <c r="D1888" t="s">
-        <v>747</v>
+        <v>724</v>
       </c>
     </row>
     <row r="1889">
@@ -41311,7 +41311,7 @@
         <v>2006</v>
       </c>
       <c r="D2129" t="s">
-        <v>809</v>
+        <v>786</v>
       </c>
     </row>
     <row r="2130">
@@ -41829,7 +41829,7 @@
         <v>2001</v>
       </c>
       <c r="D2166" t="s">
-        <v>850</v>
+        <v>827</v>
       </c>
     </row>
     <row r="2167">
@@ -42011,7 +42011,7 @@
         <v>2014</v>
       </c>
       <c r="D2179" t="s">
-        <v>856</v>
+        <v>833</v>
       </c>
     </row>
     <row r="2180">
@@ -43453,7 +43453,7 @@
         <v>2012</v>
       </c>
       <c r="D2282" t="s">
-        <v>783</v>
+        <v>760</v>
       </c>
     </row>
     <row r="2283">
@@ -43537,7 +43537,7 @@
         <v>2018</v>
       </c>
       <c r="D2288" t="s">
-        <v>681</v>
+        <v>658</v>
       </c>
     </row>
     <row r="2289">
@@ -43565,7 +43565,7 @@
         <v>2020</v>
       </c>
       <c r="D2290" t="s">
-        <v>784</v>
+        <v>761</v>
       </c>
     </row>
     <row r="2291">
@@ -47513,7 +47513,7 @@
         <v>2008</v>
       </c>
       <c r="D2572" t="s">
-        <v>780</v>
+        <v>757</v>
       </c>
     </row>
     <row r="2573">
@@ -47555,7 +47555,7 @@
         <v>2011</v>
       </c>
       <c r="D2575" t="s">
-        <v>820</v>
+        <v>797</v>
       </c>
     </row>
     <row r="2576">
@@ -48493,7 +48493,7 @@
         <v>2015</v>
       </c>
       <c r="D2642" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
     </row>
     <row r="2643">
@@ -48719,7 +48719,7 @@
         <v>2011</v>
       </c>
       <c r="D2659" t="s">
-        <v>825</v>
+        <v>802</v>
       </c>
     </row>
     <row r="2660">
@@ -50203,7 +50203,7 @@
         <v>2012</v>
       </c>
       <c r="D2765" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
     </row>
     <row r="2766">
@@ -50749,7 +50749,7 @@
         <v>2009</v>
       </c>
       <c r="D2804" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
     </row>
     <row r="2805">
@@ -50847,7 +50847,7 @@
         <v>2016</v>
       </c>
       <c r="D2811" t="s">
-        <v>810</v>
+        <v>787</v>
       </c>
     </row>
     <row r="2812">
@@ -51309,7 +51309,7 @@
         <v>2007</v>
       </c>
       <c r="D2844" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
     </row>
     <row r="2845">
@@ -51379,7 +51379,7 @@
         <v>2012</v>
       </c>
       <c r="D2849" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
     </row>
     <row r="2850">
@@ -51449,7 +51449,7 @@
         <v>2017</v>
       </c>
       <c r="D2854" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
     </row>
     <row r="2855">
@@ -51477,7 +51477,7 @@
         <v>2019</v>
       </c>
       <c r="D2856" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
     </row>
     <row r="2857">
@@ -51701,7 +51701,7 @@
         <v>2014</v>
       </c>
       <c r="D2872" t="s">
-        <v>690</v>
+        <v>667</v>
       </c>
     </row>
     <row r="2873">
@@ -52247,7 +52247,7 @@
         <v>2011</v>
       </c>
       <c r="D2911" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
     </row>
     <row r="2912">
@@ -52765,7 +52765,7 @@
         <v>2006</v>
       </c>
       <c r="D2948" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
     </row>
     <row r="2949">
@@ -53227,7 +53227,7 @@
         <v>2018</v>
       </c>
       <c r="D2981" t="s">
-        <v>844</v>
+        <v>821</v>
       </c>
     </row>
     <row r="2982">
@@ -53437,7 +53437,7 @@
         <v>2012</v>
       </c>
       <c r="D2996" t="s">
-        <v>710</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2997">
@@ -53451,7 +53451,7 @@
         <v>2013</v>
       </c>
       <c r="D2997" t="s">
-        <v>710</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2998">
@@ -53465,7 +53465,7 @@
         <v>2014</v>
       </c>
       <c r="D2998" t="s">
-        <v>731</v>
+        <v>708</v>
       </c>
     </row>
     <row r="2999">
@@ -53773,7 +53773,7 @@
         <v>2015</v>
       </c>
       <c r="D3020" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
     </row>
     <row r="3021">
@@ -53829,7 +53829,7 @@
         <v>2019</v>
       </c>
       <c r="D3024" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
     </row>
     <row r="3025">
@@ -55425,7 +55425,7 @@
         <v>2007</v>
       </c>
       <c r="D3138" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
     </row>
     <row r="3139">
@@ -55481,7 +55481,7 @@
         <v>2011</v>
       </c>
       <c r="D3142" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
     </row>
     <row r="3143">
@@ -55495,7 +55495,7 @@
         <v>2012</v>
       </c>
       <c r="D3143" t="s">
-        <v>778</v>
+        <v>755</v>
       </c>
     </row>
     <row r="3144">
@@ -56265,7 +56265,7 @@
         <v>2004</v>
       </c>
       <c r="D3198" t="s">
-        <v>829</v>
+        <v>806</v>
       </c>
     </row>
     <row r="3199">
@@ -56573,7 +56573,7 @@
         <v>2005</v>
       </c>
       <c r="D3220" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
     </row>
     <row r="3221">
@@ -56615,7 +56615,7 @@
         <v>2008</v>
       </c>
       <c r="D3223" t="s">
-        <v>778</v>
+        <v>755</v>
       </c>
     </row>
     <row r="3224">
@@ -56727,7 +56727,7 @@
         <v>2016</v>
       </c>
       <c r="D3231" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
     </row>
     <row r="3232">
@@ -57035,7 +57035,7 @@
         <v>2017</v>
       </c>
       <c r="D3253" t="s">
-        <v>683</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3254">
@@ -57063,7 +57063,7 @@
         <v>2019</v>
       </c>
       <c r="D3255" t="s">
-        <v>690</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3256">
@@ -57433,7 +57433,7 @@
         <v>2005</v>
       </c>
       <c r="D3283" t="s">
-        <v>679</v>
+        <v>656</v>
       </c>
     </row>
     <row r="3284">
@@ -58259,7 +58259,7 @@
         <v>2001</v>
       </c>
       <c r="D3342" t="s">
-        <v>700</v>
+        <v>677</v>
       </c>
     </row>
     <row r="3343">
@@ -60597,7 +60597,7 @@
         <v>2000</v>
       </c>
       <c r="D3509" t="s">
-        <v>768</v>
+        <v>745</v>
       </c>
     </row>
     <row r="3510">
@@ -60653,7 +60653,7 @@
         <v>2004</v>
       </c>
       <c r="D3513" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
     </row>
     <row r="3514">
@@ -60695,7 +60695,7 @@
         <v>2007</v>
       </c>
       <c r="D3516" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
     </row>
     <row r="3517">
@@ -62431,7 +62431,7 @@
         <v>2005</v>
       </c>
       <c r="D3640" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
     </row>
     <row r="3641">
@@ -62571,7 +62571,7 @@
         <v>2015</v>
       </c>
       <c r="D3650" t="s">
-        <v>676</v>
+        <v>653</v>
       </c>
     </row>
     <row r="3651">
@@ -63859,7 +63859,7 @@
         <v>2002</v>
       </c>
       <c r="D3742" t="s">
-        <v>3474</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3743">
@@ -63873,7 +63873,7 @@
         <v>2003</v>
       </c>
       <c r="D3743" t="s">
-        <v>3475</v>
+        <v>668</v>
       </c>
     </row>
     <row r="3744">
@@ -63887,7 +63887,7 @@
         <v>2004</v>
       </c>
       <c r="D3744" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="3745">
@@ -63901,7 +63901,7 @@
         <v>2005</v>
       </c>
       <c r="D3745" t="s">
-        <v>3477</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="3746">
@@ -63915,7 +63915,7 @@
         <v>2006</v>
       </c>
       <c r="D3746" t="s">
-        <v>1546</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="3747">
@@ -63929,7 +63929,7 @@
         <v>2007</v>
       </c>
       <c r="D3747" t="s">
-        <v>1551</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="3748">
@@ -63943,7 +63943,7 @@
         <v>2008</v>
       </c>
       <c r="D3748" t="s">
-        <v>1753</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="3749">
@@ -63957,7 +63957,7 @@
         <v>2009</v>
       </c>
       <c r="D3749" t="s">
-        <v>2675</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="3750">
@@ -63971,7 +63971,7 @@
         <v>2010</v>
       </c>
       <c r="D3750" t="s">
-        <v>279</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3751">
@@ -63985,7 +63985,7 @@
         <v>2011</v>
       </c>
       <c r="D3751" t="s">
-        <v>809</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="3752">
@@ -63999,7 +63999,7 @@
         <v>2012</v>
       </c>
       <c r="D3752" t="s">
-        <v>1082</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="3753">
@@ -64013,7 +64013,7 @@
         <v>2013</v>
       </c>
       <c r="D3753" t="s">
-        <v>770</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="3754">
@@ -64027,7 +64027,7 @@
         <v>2014</v>
       </c>
       <c r="D3754" t="s">
-        <v>89</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="3755">
@@ -64041,7 +64041,7 @@
         <v>2015</v>
       </c>
       <c r="D3755" t="s">
-        <v>3478</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="3756">
@@ -64055,7 +64055,7 @@
         <v>2016</v>
       </c>
       <c r="D3756" t="s">
-        <v>3479</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="3757">
@@ -64069,7 +64069,7 @@
         <v>2017</v>
       </c>
       <c r="D3757" t="s">
-        <v>1829</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="3758">
@@ -64083,7 +64083,7 @@
         <v>2018</v>
       </c>
       <c r="D3758" t="s">
-        <v>1546</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="3759">
@@ -64097,7 +64097,7 @@
         <v>2019</v>
       </c>
       <c r="D3759" t="s">
-        <v>768</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="3760">
@@ -64111,301 +64111,301 @@
         <v>2020</v>
       </c>
       <c r="D3760" t="s">
-        <v>56</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="3761">
       <c r="A3761" t="s">
-        <v>3480</v>
+        <v>3484</v>
       </c>
       <c r="B3761" t="s">
-        <v>3481</v>
+        <v>3485</v>
       </c>
       <c r="C3761" t="n">
         <v>2000</v>
       </c>
       <c r="D3761" t="s">
-        <v>3482</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="3762">
       <c r="A3762" t="s">
-        <v>3480</v>
+        <v>3484</v>
       </c>
       <c r="B3762" t="s">
-        <v>3481</v>
+        <v>3485</v>
       </c>
       <c r="C3762" t="n">
         <v>2001</v>
       </c>
       <c r="D3762" t="s">
-        <v>3483</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="3763">
       <c r="A3763" t="s">
-        <v>3480</v>
+        <v>3484</v>
       </c>
       <c r="B3763" t="s">
-        <v>3481</v>
+        <v>3485</v>
       </c>
       <c r="C3763" t="n">
         <v>2002</v>
       </c>
       <c r="D3763" t="s">
-        <v>688</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="3764">
       <c r="A3764" t="s">
-        <v>3480</v>
+        <v>3484</v>
       </c>
       <c r="B3764" t="s">
-        <v>3481</v>
+        <v>3485</v>
       </c>
       <c r="C3764" t="n">
         <v>2003</v>
       </c>
       <c r="D3764" t="s">
-        <v>691</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="3765">
       <c r="A3765" t="s">
-        <v>3480</v>
+        <v>3484</v>
       </c>
       <c r="B3765" t="s">
-        <v>3481</v>
+        <v>3485</v>
       </c>
       <c r="C3765" t="n">
         <v>2004</v>
       </c>
       <c r="D3765" t="s">
-        <v>3484</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="3766">
       <c r="A3766" t="s">
-        <v>3480</v>
+        <v>3484</v>
       </c>
       <c r="B3766" t="s">
-        <v>3481</v>
+        <v>3485</v>
       </c>
       <c r="C3766" t="n">
         <v>2005</v>
       </c>
       <c r="D3766" t="s">
-        <v>3485</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="3767">
       <c r="A3767" t="s">
-        <v>3480</v>
+        <v>3484</v>
       </c>
       <c r="B3767" t="s">
-        <v>3481</v>
+        <v>3485</v>
       </c>
       <c r="C3767" t="n">
         <v>2006</v>
       </c>
       <c r="D3767" t="s">
-        <v>3486</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="3768">
       <c r="A3768" t="s">
-        <v>3480</v>
+        <v>3484</v>
       </c>
       <c r="B3768" t="s">
-        <v>3481</v>
+        <v>3485</v>
       </c>
       <c r="C3768" t="n">
         <v>2007</v>
       </c>
       <c r="D3768" t="s">
-        <v>3487</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="3769">
       <c r="A3769" t="s">
-        <v>3480</v>
+        <v>3484</v>
       </c>
       <c r="B3769" t="s">
-        <v>3481</v>
+        <v>3485</v>
       </c>
       <c r="C3769" t="n">
         <v>2008</v>
       </c>
       <c r="D3769" t="s">
-        <v>1249</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="3770">
       <c r="A3770" t="s">
-        <v>3480</v>
+        <v>3484</v>
       </c>
       <c r="B3770" t="s">
-        <v>3481</v>
+        <v>3485</v>
       </c>
       <c r="C3770" t="n">
         <v>2009</v>
       </c>
       <c r="D3770" t="s">
-        <v>3488</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="3771">
       <c r="A3771" t="s">
-        <v>3480</v>
+        <v>3484</v>
       </c>
       <c r="B3771" t="s">
-        <v>3481</v>
+        <v>3485</v>
       </c>
       <c r="C3771" t="n">
         <v>2010</v>
       </c>
       <c r="D3771" t="s">
-        <v>504</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3772">
       <c r="A3772" t="s">
-        <v>3480</v>
+        <v>3484</v>
       </c>
       <c r="B3772" t="s">
-        <v>3481</v>
+        <v>3485</v>
       </c>
       <c r="C3772" t="n">
         <v>2011</v>
       </c>
       <c r="D3772" t="s">
-        <v>3486</v>
+        <v>786</v>
       </c>
     </row>
     <row r="3773">
       <c r="A3773" t="s">
-        <v>3480</v>
+        <v>3484</v>
       </c>
       <c r="B3773" t="s">
-        <v>3481</v>
+        <v>3485</v>
       </c>
       <c r="C3773" t="n">
         <v>2012</v>
       </c>
       <c r="D3773" t="s">
-        <v>1253</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="3774">
       <c r="A3774" t="s">
-        <v>3480</v>
+        <v>3484</v>
       </c>
       <c r="B3774" t="s">
-        <v>3481</v>
+        <v>3485</v>
       </c>
       <c r="C3774" t="n">
         <v>2013</v>
       </c>
       <c r="D3774" t="s">
-        <v>3489</v>
+        <v>747</v>
       </c>
     </row>
     <row r="3775">
       <c r="A3775" t="s">
-        <v>3480</v>
+        <v>3484</v>
       </c>
       <c r="B3775" t="s">
-        <v>3481</v>
+        <v>3485</v>
       </c>
       <c r="C3775" t="n">
         <v>2014</v>
       </c>
       <c r="D3775" t="s">
-        <v>1589</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3776">
       <c r="A3776" t="s">
-        <v>3480</v>
+        <v>3484</v>
       </c>
       <c r="B3776" t="s">
-        <v>3481</v>
+        <v>3485</v>
       </c>
       <c r="C3776" t="n">
         <v>2015</v>
       </c>
       <c r="D3776" t="s">
-        <v>1250</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="3777">
       <c r="A3777" t="s">
-        <v>3480</v>
+        <v>3484</v>
       </c>
       <c r="B3777" t="s">
-        <v>3481</v>
+        <v>3485</v>
       </c>
       <c r="C3777" t="n">
         <v>2016</v>
       </c>
       <c r="D3777" t="s">
-        <v>3490</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="3778">
       <c r="A3778" t="s">
-        <v>3480</v>
+        <v>3484</v>
       </c>
       <c r="B3778" t="s">
-        <v>3481</v>
+        <v>3485</v>
       </c>
       <c r="C3778" t="n">
         <v>2017</v>
       </c>
       <c r="D3778" t="s">
-        <v>3491</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="3779">
       <c r="A3779" t="s">
-        <v>3480</v>
+        <v>3484</v>
       </c>
       <c r="B3779" t="s">
-        <v>3481</v>
+        <v>3485</v>
       </c>
       <c r="C3779" t="n">
         <v>2018</v>
       </c>
       <c r="D3779" t="s">
-        <v>3492</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="3780">
       <c r="A3780" t="s">
-        <v>3480</v>
+        <v>3484</v>
       </c>
       <c r="B3780" t="s">
-        <v>3481</v>
+        <v>3485</v>
       </c>
       <c r="C3780" t="n">
         <v>2019</v>
       </c>
       <c r="D3780" t="s">
-        <v>3493</v>
+        <v>745</v>
       </c>
     </row>
     <row r="3781">
       <c r="A3781" t="s">
-        <v>3480</v>
+        <v>3484</v>
       </c>
       <c r="B3781" t="s">
-        <v>3481</v>
+        <v>3485</v>
       </c>
       <c r="C3781" t="n">
         <v>2020</v>
       </c>
       <c r="D3781" t="s">
-        <v>1333</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3782">
@@ -64797,7 +64797,7 @@
         <v>2006</v>
       </c>
       <c r="D3809" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3810">
@@ -64853,7 +64853,7 @@
         <v>2010</v>
       </c>
       <c r="D3813" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
     </row>
     <row r="3814">
@@ -64881,7 +64881,7 @@
         <v>2012</v>
       </c>
       <c r="D3815" t="s">
-        <v>801</v>
+        <v>778</v>
       </c>
     </row>
     <row r="3816">
@@ -65609,7 +65609,7 @@
         <v>2001</v>
       </c>
       <c r="D3867" t="s">
-        <v>768</v>
+        <v>745</v>
       </c>
     </row>
     <row r="3868">
@@ -66575,7 +66575,7 @@
         <v>2007</v>
       </c>
       <c r="D3936" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3937">
@@ -69203,117 +69203,117 @@
         <v>652</v>
       </c>
       <c r="D31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" t="s">
         <v>653</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>654</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>655</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>656</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>657</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>658</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>659</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
+        <v>177</v>
+      </c>
+      <c r="M31" t="s">
         <v>660</v>
       </c>
-      <c r="L31" t="s">
+      <c r="N31" t="s">
         <v>661</v>
       </c>
-      <c r="M31" t="s">
+      <c r="O31" t="s">
         <v>662</v>
       </c>
-      <c r="N31" t="s">
+      <c r="P31" t="s">
         <v>663</v>
       </c>
-      <c r="O31" t="s">
+      <c r="Q31" t="s">
+        <v>661</v>
+      </c>
+      <c r="R31" t="s">
         <v>664</v>
       </c>
-      <c r="P31" t="s">
+      <c r="S31" t="s">
         <v>665</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="T31" t="s">
         <v>666</v>
       </c>
-      <c r="R31" t="s">
+      <c r="U31" t="s">
         <v>667</v>
       </c>
-      <c r="S31" t="s">
+      <c r="V31" t="s">
         <v>668</v>
       </c>
-      <c r="T31" t="s">
+      <c r="W31" t="s">
         <v>669</v>
-      </c>
-      <c r="U31" t="s">
-        <v>670</v>
-      </c>
-      <c r="V31" t="s">
-        <v>671</v>
-      </c>
-      <c r="W31" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>670</v>
+      </c>
+      <c r="B32" t="s">
+        <v>671</v>
+      </c>
+      <c r="C32" t="s">
+        <v>672</v>
+      </c>
+      <c r="D32" t="s">
         <v>673</v>
       </c>
-      <c r="B32" t="s">
+      <c r="E32" t="s">
         <v>674</v>
       </c>
-      <c r="C32" t="s">
+      <c r="F32" t="s">
         <v>675</v>
       </c>
-      <c r="D32" t="s">
-        <v>166</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>676</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>677</v>
       </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
         <v>678</v>
       </c>
-      <c r="H32" t="s">
+      <c r="J32" t="s">
         <v>679</v>
       </c>
-      <c r="I32" t="s">
+      <c r="K32" t="s">
         <v>680</v>
       </c>
-      <c r="J32" t="s">
+      <c r="L32" t="s">
         <v>681</v>
       </c>
-      <c r="K32" t="s">
+      <c r="M32" t="s">
         <v>682</v>
       </c>
-      <c r="L32" t="s">
-        <v>177</v>
-      </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>683</v>
       </c>
-      <c r="N32" t="s">
+      <c r="O32" t="s">
         <v>684</v>
       </c>
-      <c r="O32" t="s">
+      <c r="P32" t="s">
         <v>685</v>
       </c>
-      <c r="P32" t="s">
+      <c r="Q32" t="s">
         <v>686</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>684</v>
       </c>
       <c r="R32" t="s">
         <v>687</v>
@@ -69375,78 +69375,78 @@
         <v>705</v>
       </c>
       <c r="N33" t="s">
+        <v>377</v>
+      </c>
+      <c r="O33" t="s">
         <v>706</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>707</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>708</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="R33" t="s">
         <v>709</v>
       </c>
-      <c r="R33" t="s">
+      <c r="S33" t="s">
         <v>710</v>
       </c>
-      <c r="S33" t="s">
+      <c r="T33" t="s">
         <v>711</v>
       </c>
-      <c r="T33" t="s">
+      <c r="U33" t="s">
         <v>712</v>
       </c>
-      <c r="U33" t="s">
+      <c r="V33" t="s">
         <v>713</v>
       </c>
-      <c r="V33" t="s">
+      <c r="W33" t="s">
         <v>714</v>
-      </c>
-      <c r="W33" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>715</v>
+      </c>
+      <c r="B34" t="s">
         <v>716</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>717</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>718</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>719</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>720</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>721</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>722</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>723</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>724</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>725</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>726</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>727</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>728</v>
-      </c>
-      <c r="N34" t="s">
-        <v>377</v>
       </c>
       <c r="O34" t="s">
         <v>729</v>
@@ -69505,250 +69505,250 @@
         <v>746</v>
       </c>
       <c r="J35" t="s">
+        <v>92</v>
+      </c>
+      <c r="K35" t="s">
         <v>747</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>748</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>749</v>
       </c>
-      <c r="M35" t="s">
+      <c r="N35" t="s">
         <v>750</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>751</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>752</v>
       </c>
-      <c r="P35" t="s">
+      <c r="Q35" t="s">
+        <v>284</v>
+      </c>
+      <c r="R35" t="s">
         <v>753</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="S35" t="s">
+        <v>183</v>
+      </c>
+      <c r="T35" t="s">
         <v>754</v>
       </c>
-      <c r="R35" t="s">
+      <c r="U35" t="s">
         <v>755</v>
       </c>
-      <c r="S35" t="s">
+      <c r="V35" t="s">
         <v>756</v>
       </c>
-      <c r="T35" t="s">
+      <c r="W35" t="s">
         <v>757</v>
-      </c>
-      <c r="U35" t="s">
-        <v>758</v>
-      </c>
-      <c r="V35" t="s">
-        <v>759</v>
-      </c>
-      <c r="W35" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>758</v>
+      </c>
+      <c r="B36" t="s">
+        <v>759</v>
+      </c>
+      <c r="C36" t="s">
+        <v>760</v>
+      </c>
+      <c r="D36" t="s">
+        <v>176</v>
+      </c>
+      <c r="E36" t="s">
+        <v>658</v>
+      </c>
+      <c r="F36" t="s">
         <v>761</v>
       </c>
-      <c r="B36" t="s">
+      <c r="G36" t="s">
         <v>762</v>
       </c>
-      <c r="C36" t="s">
+      <c r="H36" t="s">
         <v>763</v>
       </c>
-      <c r="D36" t="s">
+      <c r="I36" t="s">
         <v>764</v>
       </c>
-      <c r="E36" t="s">
+      <c r="J36" t="s">
         <v>765</v>
       </c>
-      <c r="F36" t="s">
+      <c r="K36" t="s">
         <v>766</v>
       </c>
-      <c r="G36" t="s">
+      <c r="L36" t="s">
         <v>767</v>
       </c>
-      <c r="H36" t="s">
+      <c r="M36" t="s">
         <v>768</v>
       </c>
-      <c r="I36" t="s">
+      <c r="N36" t="s">
         <v>769</v>
       </c>
-      <c r="J36" t="s">
-        <v>92</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="O36" t="s">
         <v>770</v>
       </c>
-      <c r="L36" t="s">
+      <c r="P36" t="s">
         <v>771</v>
       </c>
-      <c r="M36" t="s">
+      <c r="Q36" t="s">
         <v>772</v>
       </c>
-      <c r="N36" t="s">
+      <c r="R36" t="s">
         <v>773</v>
       </c>
-      <c r="O36" t="s">
+      <c r="S36" t="s">
         <v>774</v>
       </c>
-      <c r="P36" t="s">
+      <c r="T36" t="s">
         <v>775</v>
       </c>
-      <c r="Q36" t="s">
-        <v>284</v>
-      </c>
-      <c r="R36" t="s">
+      <c r="U36" t="s">
         <v>776</v>
       </c>
-      <c r="S36" t="s">
-        <v>183</v>
-      </c>
-      <c r="T36" t="s">
+      <c r="V36" t="s">
         <v>777</v>
       </c>
-      <c r="U36" t="s">
+      <c r="W36" t="s">
         <v>778</v>
-      </c>
-      <c r="V36" t="s">
-        <v>779</v>
-      </c>
-      <c r="W36" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>779</v>
+      </c>
+      <c r="B37" t="s">
+        <v>780</v>
+      </c>
+      <c r="C37" t="s">
         <v>781</v>
       </c>
-      <c r="B37" t="s">
+      <c r="D37" t="s">
         <v>782</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>783</v>
-      </c>
-      <c r="D37" t="s">
-        <v>176</v>
-      </c>
-      <c r="E37" t="s">
-        <v>681</v>
       </c>
       <c r="F37" t="s">
         <v>784</v>
       </c>
       <c r="G37" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" t="s">
         <v>785</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>786</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>787</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>788</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>789</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>790</v>
       </c>
-      <c r="M37" t="s">
+      <c r="N37" t="s">
         <v>791</v>
       </c>
-      <c r="N37" t="s">
+      <c r="O37" t="s">
         <v>792</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>793</v>
       </c>
-      <c r="P37" t="s">
+      <c r="Q37" t="s">
         <v>794</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="R37" t="s">
         <v>795</v>
       </c>
-      <c r="R37" t="s">
+      <c r="S37" t="s">
         <v>796</v>
       </c>
-      <c r="S37" t="s">
+      <c r="T37" t="s">
+        <v>189</v>
+      </c>
+      <c r="U37" t="s">
         <v>797</v>
       </c>
-      <c r="T37" t="s">
+      <c r="V37" t="s">
         <v>798</v>
       </c>
-      <c r="U37" t="s">
+      <c r="W37" t="s">
         <v>799</v>
-      </c>
-      <c r="V37" t="s">
-        <v>800</v>
-      </c>
-      <c r="W37" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>800</v>
+      </c>
+      <c r="B38" t="s">
+        <v>801</v>
+      </c>
+      <c r="C38" t="s">
         <v>802</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
         <v>803</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>804</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>805</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>806</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
         <v>807</v>
       </c>
-      <c r="G38" t="s">
-        <v>55</v>
-      </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>808</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>809</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>810</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>811</v>
       </c>
-      <c r="L38" t="s">
+      <c r="M38" t="s">
         <v>812</v>
       </c>
-      <c r="M38" t="s">
+      <c r="N38" t="s">
         <v>813</v>
       </c>
-      <c r="N38" t="s">
+      <c r="O38" t="s">
         <v>814</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>815</v>
       </c>
-      <c r="P38" t="s">
+      <c r="Q38" t="s">
         <v>816</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="R38" t="s">
         <v>817</v>
       </c>
-      <c r="R38" t="s">
+      <c r="S38" t="s">
         <v>818</v>
       </c>
-      <c r="S38" t="s">
+      <c r="T38" t="s">
         <v>819</v>
-      </c>
-      <c r="T38" t="s">
-        <v>189</v>
       </c>
       <c r="U38" t="s">
         <v>820</v>
@@ -70085,7 +70085,7 @@
         <v>927</v>
       </c>
       <c r="N43" t="s">
-        <v>618</v>
+        <v>883</v>
       </c>
       <c r="O43" t="s">
         <v>928</v>
@@ -70141,7 +70141,7 @@
         <v>279</v>
       </c>
       <c r="I44" t="s">
-        <v>769</v>
+        <v>746</v>
       </c>
       <c r="J44" t="s">
         <v>944</v>
@@ -70153,13 +70153,13 @@
         <v>66</v>
       </c>
       <c r="M44" t="s">
-        <v>810</v>
+        <v>787</v>
       </c>
       <c r="N44" t="s">
         <v>945</v>
       </c>
       <c r="O44" t="s">
-        <v>810</v>
+        <v>787</v>
       </c>
       <c r="P44" t="s">
         <v>62</v>
@@ -70206,10 +70206,10 @@
         <v>955</v>
       </c>
       <c r="G45" t="s">
-        <v>773</v>
+        <v>750</v>
       </c>
       <c r="H45" t="s">
-        <v>774</v>
+        <v>751</v>
       </c>
       <c r="I45" t="s">
         <v>285</v>
@@ -70233,7 +70233,7 @@
         <v>959</v>
       </c>
       <c r="P45" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
       <c r="Q45" t="s">
         <v>958</v>
@@ -70254,7 +70254,7 @@
         <v>963</v>
       </c>
       <c r="W45" t="s">
-        <v>816</v>
+        <v>793</v>
       </c>
     </row>
     <row r="46">
@@ -70271,7 +70271,7 @@
         <v>967</v>
       </c>
       <c r="E46" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
       <c r="F46" t="s">
         <v>968</v>
@@ -70735,7 +70735,7 @@
         <v>1107</v>
       </c>
       <c r="U52" t="s">
-        <v>879</v>
+        <v>856</v>
       </c>
       <c r="V52" t="s">
         <v>1108</v>
@@ -70755,7 +70755,7 @@
         <v>1112</v>
       </c>
       <c r="D53" t="s">
-        <v>724</v>
+        <v>701</v>
       </c>
       <c r="E53" t="s">
         <v>1113</v>
@@ -71125,7 +71125,7 @@
         <v>1224</v>
       </c>
       <c r="I58" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
       <c r="J58" t="s">
         <v>1225</v>
@@ -71462,10 +71462,10 @@
         <v>1324</v>
       </c>
       <c r="C63" t="s">
-        <v>691</v>
+        <v>668</v>
       </c>
       <c r="D63" t="s">
-        <v>691</v>
+        <v>668</v>
       </c>
       <c r="E63" t="s">
         <v>1325</v>
@@ -71640,7 +71640,7 @@
         <v>1371</v>
       </c>
       <c r="O65" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
       <c r="P65" t="s">
         <v>1233</v>
@@ -71649,22 +71649,22 @@
         <v>335</v>
       </c>
       <c r="R65" t="s">
-        <v>810</v>
+        <v>787</v>
       </c>
       <c r="S65" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
       <c r="T65" t="s">
         <v>1372</v>
       </c>
       <c r="U65" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="V65" t="s">
         <v>336</v>
       </c>
       <c r="W65" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
     </row>
     <row r="66">
@@ -72172,7 +72172,7 @@
         <v>1529</v>
       </c>
       <c r="C73" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
       <c r="D73" t="s">
         <v>1530</v>
@@ -72211,10 +72211,10 @@
         <v>123</v>
       </c>
       <c r="P73" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
       <c r="Q73" t="s">
-        <v>778</v>
+        <v>755</v>
       </c>
       <c r="R73" t="s">
         <v>1536</v>
@@ -72415,13 +72415,13 @@
         <v>1584</v>
       </c>
       <c r="M76" t="s">
-        <v>687</v>
+        <v>664</v>
       </c>
       <c r="N76" t="s">
         <v>1585</v>
       </c>
       <c r="O76" t="s">
-        <v>686</v>
+        <v>663</v>
       </c>
       <c r="P76" t="s">
         <v>1586</v>
@@ -72516,7 +72516,7 @@
         <v>1611</v>
       </c>
       <c r="W77" t="s">
-        <v>680</v>
+        <v>657</v>
       </c>
     </row>
     <row r="78">
@@ -72551,7 +72551,7 @@
         <v>1617</v>
       </c>
       <c r="K78" t="s">
-        <v>816</v>
+        <v>793</v>
       </c>
       <c r="L78" t="s">
         <v>1618</v>
@@ -72693,10 +72693,10 @@
         <v>1645</v>
       </c>
       <c r="K80" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
       <c r="L80" t="s">
-        <v>812</v>
+        <v>789</v>
       </c>
       <c r="M80" t="s">
         <v>1534</v>
@@ -72814,7 +72814,7 @@
         <v>1664</v>
       </c>
       <c r="D82" t="s">
-        <v>679</v>
+        <v>656</v>
       </c>
       <c r="E82" t="s">
         <v>1665</v>
@@ -72826,10 +72826,10 @@
         <v>1667</v>
       </c>
       <c r="H82" t="s">
-        <v>690</v>
+        <v>667</v>
       </c>
       <c r="I82" t="s">
-        <v>691</v>
+        <v>668</v>
       </c>
       <c r="J82" t="s">
         <v>502</v>
@@ -72856,13 +72856,13 @@
         <v>1672</v>
       </c>
       <c r="R82" t="s">
-        <v>686</v>
+        <v>663</v>
       </c>
       <c r="S82" t="s">
         <v>1673</v>
       </c>
       <c r="T82" t="s">
-        <v>785</v>
+        <v>762</v>
       </c>
       <c r="U82" t="s">
         <v>1587</v>
@@ -72989,7 +72989,7 @@
         <v>1710</v>
       </c>
       <c r="O84" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
       <c r="P84" t="s">
         <v>1711</v>
@@ -73143,7 +73143,7 @@
         <v>949</v>
       </c>
       <c r="S86" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
       <c r="T86" t="s">
         <v>283</v>
@@ -73403,7 +73403,7 @@
         <v>84</v>
       </c>
       <c r="K90" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
       <c r="L90" t="s">
         <v>87</v>
@@ -73421,7 +73421,7 @@
         <v>1082</v>
       </c>
       <c r="Q90" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
       <c r="R90" t="s">
         <v>1655</v>
@@ -73501,7 +73501,7 @@
         <v>233</v>
       </c>
       <c r="T91" t="s">
-        <v>747</v>
+        <v>724</v>
       </c>
       <c r="U91" t="s">
         <v>1852</v>
@@ -74320,7 +74320,7 @@
         <v>90</v>
       </c>
       <c r="I103" t="s">
-        <v>809</v>
+        <v>786</v>
       </c>
       <c r="J103" t="s">
         <v>1532</v>
@@ -74447,7 +74447,7 @@
         <v>2133</v>
       </c>
       <c r="D105" t="s">
-        <v>850</v>
+        <v>827</v>
       </c>
       <c r="E105" t="s">
         <v>2134</v>
@@ -74486,7 +74486,7 @@
         <v>2145</v>
       </c>
       <c r="Q105" t="s">
-        <v>856</v>
+        <v>833</v>
       </c>
       <c r="R105" t="s">
         <v>2146</v>
@@ -74835,7 +74835,7 @@
         <v>1582</v>
       </c>
       <c r="O110" t="s">
-        <v>783</v>
+        <v>760</v>
       </c>
       <c r="P110" t="s">
         <v>2250</v>
@@ -74853,13 +74853,13 @@
         <v>1239</v>
       </c>
       <c r="U110" t="s">
-        <v>681</v>
+        <v>658</v>
       </c>
       <c r="V110" t="s">
         <v>173</v>
       </c>
       <c r="W110" t="s">
-        <v>784</v>
+        <v>761</v>
       </c>
     </row>
     <row r="111">
@@ -75817,7 +75817,7 @@
         <v>1230</v>
       </c>
       <c r="K124" t="s">
-        <v>780</v>
+        <v>757</v>
       </c>
       <c r="L124" t="s">
         <v>1645</v>
@@ -75826,7 +75826,7 @@
         <v>2522</v>
       </c>
       <c r="N124" t="s">
-        <v>820</v>
+        <v>797</v>
       </c>
       <c r="O124" t="s">
         <v>2523</v>
@@ -76051,7 +76051,7 @@
         <v>2577</v>
       </c>
       <c r="R127" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
       <c r="S127"/>
       <c r="T127"/>
@@ -76098,7 +76098,7 @@
         <v>2588</v>
       </c>
       <c r="N128" t="s">
-        <v>825</v>
+        <v>802</v>
       </c>
       <c r="O128" t="s">
         <v>2589</v>
@@ -76456,7 +76456,7 @@
         <v>2686</v>
       </c>
       <c r="O133" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
       <c r="P133" t="s">
         <v>1754</v>
@@ -76589,7 +76589,7 @@
         <v>123</v>
       </c>
       <c r="L135" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="M135" t="s">
         <v>2708</v>
@@ -76610,7 +76610,7 @@
         <v>2711</v>
       </c>
       <c r="S135" t="s">
-        <v>810</v>
+        <v>787</v>
       </c>
       <c r="T135" t="s">
         <v>67</v>
@@ -76725,7 +76725,7 @@
         <v>85</v>
       </c>
       <c r="J137" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
       <c r="K137" t="s">
         <v>2723</v>
@@ -76740,7 +76740,7 @@
         <v>1635</v>
       </c>
       <c r="O137" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
       <c r="P137" t="s">
         <v>2470</v>
@@ -76755,13 +76755,13 @@
         <v>1367</v>
       </c>
       <c r="T137" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
       <c r="U137" t="s">
         <v>1658</v>
       </c>
       <c r="V137" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
       <c r="W137" t="s">
         <v>1645</v>
@@ -76817,7 +76817,7 @@
         <v>1325</v>
       </c>
       <c r="Q138" t="s">
-        <v>690</v>
+        <v>667</v>
       </c>
       <c r="R138" t="s">
         <v>2742</v>
@@ -76950,7 +76950,7 @@
         <v>2778</v>
       </c>
       <c r="N140" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
       <c r="O140" t="s">
         <v>2779</v>
@@ -77077,7 +77077,7 @@
         <v>2812</v>
       </c>
       <c r="I142" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
       <c r="J142" t="s">
         <v>2776</v>
@@ -77184,7 +77184,7 @@
         <v>2839</v>
       </c>
       <c r="U143" t="s">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="V143" t="s">
         <v>2840</v>
@@ -77237,13 +77237,13 @@
         <v>1961</v>
       </c>
       <c r="O144" t="s">
-        <v>710</v>
+        <v>687</v>
       </c>
       <c r="P144" t="s">
-        <v>710</v>
+        <v>687</v>
       </c>
       <c r="Q144" t="s">
-        <v>731</v>
+        <v>708</v>
       </c>
       <c r="R144" t="s">
         <v>2850</v>
@@ -77317,7 +77317,7 @@
         <v>2871</v>
       </c>
       <c r="R145" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
       <c r="S145" t="s">
         <v>2872</v>
@@ -77329,7 +77329,7 @@
         <v>2873</v>
       </c>
       <c r="V145" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="W145" t="s">
         <v>2874</v>
@@ -77719,7 +77719,7 @@
         <v>1752</v>
       </c>
       <c r="J151" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
       <c r="K151" t="s">
         <v>2470</v>
@@ -77731,10 +77731,10 @@
         <v>2980</v>
       </c>
       <c r="N151" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
       <c r="O151" t="s">
-        <v>778</v>
+        <v>755</v>
       </c>
       <c r="P151" t="s">
         <v>2981</v>
@@ -77923,7 +77923,7 @@
         <v>3034</v>
       </c>
       <c r="G154" t="s">
-        <v>829</v>
+        <v>806</v>
       </c>
       <c r="H154" t="s">
         <v>3035</v>
@@ -77997,7 +77997,7 @@
         <v>2677</v>
       </c>
       <c r="H155" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
       <c r="I155" t="s">
         <v>1231</v>
@@ -78006,7 +78006,7 @@
         <v>3050</v>
       </c>
       <c r="K155" t="s">
-        <v>778</v>
+        <v>755</v>
       </c>
       <c r="L155" t="s">
         <v>3051</v>
@@ -78030,7 +78030,7 @@
         <v>3054</v>
       </c>
       <c r="S155" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="T155" t="s">
         <v>3055</v>
@@ -78104,13 +78104,13 @@
         <v>1240</v>
       </c>
       <c r="T156" t="s">
-        <v>683</v>
+        <v>660</v>
       </c>
       <c r="U156" t="s">
         <v>3071</v>
       </c>
       <c r="V156" t="s">
-        <v>690</v>
+        <v>667</v>
       </c>
       <c r="W156" t="s">
         <v>1587</v>
@@ -78188,7 +78188,7 @@
         <v>3090</v>
       </c>
       <c r="H158" t="s">
-        <v>679</v>
+        <v>656</v>
       </c>
       <c r="I158" t="s">
         <v>1665</v>
@@ -78389,7 +78389,7 @@
         <v>3140</v>
       </c>
       <c r="D161" t="s">
-        <v>700</v>
+        <v>677</v>
       </c>
       <c r="E161" t="s">
         <v>3141</v>
@@ -78954,7 +78954,7 @@
         <v>3276</v>
       </c>
       <c r="C169" t="s">
-        <v>768</v>
+        <v>745</v>
       </c>
       <c r="D169" t="s">
         <v>1615</v>
@@ -78966,7 +78966,7 @@
         <v>89</v>
       </c>
       <c r="G169" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
       <c r="H169" t="s">
         <v>953</v>
@@ -78975,7 +78975,7 @@
         <v>2877</v>
       </c>
       <c r="J169" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
       <c r="K169" t="s">
         <v>1637</v>
@@ -79395,7 +79395,7 @@
         <v>3223</v>
       </c>
       <c r="H175" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
       <c r="I175" t="s">
         <v>345</v>
@@ -79425,7 +79425,7 @@
         <v>1580</v>
       </c>
       <c r="R175" t="s">
-        <v>676</v>
+        <v>653</v>
       </c>
       <c r="S175" t="s">
         <v>3399</v>
@@ -79741,132 +79741,132 @@
         <v>3473</v>
       </c>
       <c r="E180" t="s">
+        <v>665</v>
+      </c>
+      <c r="F180" t="s">
+        <v>668</v>
+      </c>
+      <c r="G180" t="s">
         <v>3474</v>
       </c>
-      <c r="F180" t="s">
+      <c r="H180" t="s">
         <v>3475</v>
       </c>
-      <c r="G180" t="s">
+      <c r="I180" t="s">
         <v>3476</v>
       </c>
-      <c r="H180" t="s">
+      <c r="J180" t="s">
         <v>3477</v>
       </c>
-      <c r="I180" t="s">
-        <v>1546</v>
-      </c>
-      <c r="J180" t="s">
-        <v>1551</v>
-      </c>
       <c r="K180" t="s">
-        <v>1753</v>
+        <v>1249</v>
       </c>
       <c r="L180" t="s">
-        <v>2675</v>
+        <v>3478</v>
       </c>
       <c r="M180" t="s">
-        <v>279</v>
+        <v>504</v>
       </c>
       <c r="N180" t="s">
-        <v>809</v>
+        <v>3476</v>
       </c>
       <c r="O180" t="s">
-        <v>1082</v>
+        <v>1253</v>
       </c>
       <c r="P180" t="s">
-        <v>770</v>
+        <v>3479</v>
       </c>
       <c r="Q180" t="s">
-        <v>89</v>
+        <v>1589</v>
       </c>
       <c r="R180" t="s">
-        <v>3478</v>
+        <v>1250</v>
       </c>
       <c r="S180" t="s">
-        <v>3479</v>
+        <v>3480</v>
       </c>
       <c r="T180" t="s">
-        <v>1829</v>
+        <v>3481</v>
       </c>
       <c r="U180" t="s">
-        <v>1546</v>
+        <v>3482</v>
       </c>
       <c r="V180" t="s">
-        <v>768</v>
+        <v>3483</v>
       </c>
       <c r="W180" t="s">
-        <v>56</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>3480</v>
+        <v>3484</v>
       </c>
       <c r="B181" t="s">
-        <v>3481</v>
+        <v>3485</v>
       </c>
       <c r="C181" t="s">
-        <v>3482</v>
+        <v>3486</v>
       </c>
       <c r="D181" t="s">
-        <v>3483</v>
+        <v>3487</v>
       </c>
       <c r="E181" t="s">
-        <v>688</v>
+        <v>3488</v>
       </c>
       <c r="F181" t="s">
-        <v>691</v>
+        <v>3489</v>
       </c>
       <c r="G181" t="s">
-        <v>3484</v>
+        <v>3490</v>
       </c>
       <c r="H181" t="s">
-        <v>3485</v>
+        <v>3491</v>
       </c>
       <c r="I181" t="s">
-        <v>3486</v>
+        <v>1546</v>
       </c>
       <c r="J181" t="s">
-        <v>3487</v>
+        <v>1551</v>
       </c>
       <c r="K181" t="s">
-        <v>1249</v>
+        <v>1753</v>
       </c>
       <c r="L181" t="s">
-        <v>3488</v>
+        <v>2675</v>
       </c>
       <c r="M181" t="s">
-        <v>504</v>
+        <v>279</v>
       </c>
       <c r="N181" t="s">
-        <v>3486</v>
+        <v>786</v>
       </c>
       <c r="O181" t="s">
-        <v>1253</v>
+        <v>1082</v>
       </c>
       <c r="P181" t="s">
-        <v>3489</v>
+        <v>747</v>
       </c>
       <c r="Q181" t="s">
-        <v>1589</v>
+        <v>89</v>
       </c>
       <c r="R181" t="s">
-        <v>1250</v>
+        <v>3492</v>
       </c>
       <c r="S181" t="s">
-        <v>3490</v>
+        <v>3493</v>
       </c>
       <c r="T181" t="s">
-        <v>3491</v>
+        <v>1829</v>
       </c>
       <c r="U181" t="s">
-        <v>3492</v>
+        <v>1546</v>
       </c>
       <c r="V181" t="s">
-        <v>3493</v>
+        <v>745</v>
       </c>
       <c r="W181" t="s">
-        <v>1333</v>
+        <v>56</v>
       </c>
     </row>
     <row r="182">
@@ -79966,7 +79966,7 @@
         <v>3524</v>
       </c>
       <c r="I183" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="J183" t="s">
         <v>3525</v>
@@ -79978,13 +79978,13 @@
         <v>3527</v>
       </c>
       <c r="M183" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
       <c r="N183" t="s">
         <v>3528</v>
       </c>
       <c r="O183" t="s">
-        <v>801</v>
+        <v>778</v>
       </c>
       <c r="P183" t="s">
         <v>3529</v>
@@ -80164,7 +80164,7 @@
         <v>88</v>
       </c>
       <c r="D186" t="s">
-        <v>768</v>
+        <v>745</v>
       </c>
       <c r="E186" t="s">
         <v>3576</v>
@@ -80395,7 +80395,7 @@
         <v>3625</v>
       </c>
       <c r="J189" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="K189" t="s">
         <v>3626</v>
